--- a/Code/Results/Cases/Case_7_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_1/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.885748914192106</v>
+        <v>0.9373763136738376</v>
       </c>
       <c r="C2">
-        <v>0.2176199341560476</v>
+        <v>0.1210134643188781</v>
       </c>
       <c r="D2">
-        <v>0.002014101642725308</v>
+        <v>0.06221652456233073</v>
       </c>
       <c r="E2">
-        <v>0.02812015173612981</v>
+        <v>0.05531185234623237</v>
       </c>
       <c r="F2">
-        <v>2.939317074218962</v>
+        <v>1.113146578240546</v>
       </c>
       <c r="G2">
-        <v>0.0008572522794730864</v>
+        <v>0.0008446227863646027</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08882231132896301</v>
+        <v>0.08640618957011448</v>
       </c>
       <c r="K2">
-        <v>0.4202608524485214</v>
+        <v>0.7680626568773334</v>
       </c>
       <c r="L2">
-        <v>0.1231498146258474</v>
+        <v>0.1280481608340125</v>
       </c>
       <c r="M2">
-        <v>0.3235353192312616</v>
+        <v>0.1923906767110211</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.214733139514095</v>
+        <v>3.040883712104886</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.661120455809026</v>
+        <v>0.8184626849995027</v>
       </c>
       <c r="C3">
-        <v>0.1897361770144528</v>
+        <v>0.1194908279790212</v>
       </c>
       <c r="D3">
-        <v>0.001692915584582622</v>
+        <v>0.05620135089939282</v>
       </c>
       <c r="E3">
-        <v>0.028228802264886</v>
+        <v>0.05482187745795741</v>
       </c>
       <c r="F3">
-        <v>2.786179195591913</v>
+        <v>1.104550909847227</v>
       </c>
       <c r="G3">
-        <v>0.0008649618144027258</v>
+        <v>0.0008485897870263992</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0895700135054156</v>
+        <v>0.08847737183655902</v>
       </c>
       <c r="K3">
-        <v>0.3661571249561533</v>
+        <v>0.6675857393915834</v>
       </c>
       <c r="L3">
-        <v>0.1142666155432721</v>
+        <v>0.1177870507586434</v>
       </c>
       <c r="M3">
-        <v>0.2879191927530371</v>
+        <v>0.1697995377482968</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.097285006802693</v>
+        <v>3.043448001491527</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.525699367904679</v>
+        <v>0.7457973813547483</v>
       </c>
       <c r="C4">
-        <v>0.1727582192966821</v>
+        <v>0.1185712592146473</v>
       </c>
       <c r="D4">
-        <v>0.001505617041045682</v>
+        <v>0.05254469887049851</v>
       </c>
       <c r="E4">
-        <v>0.02830600525120186</v>
+        <v>0.05457091392534608</v>
       </c>
       <c r="F4">
-        <v>2.696166620908514</v>
+        <v>1.100820493825964</v>
       </c>
       <c r="G4">
-        <v>0.0008698340173362841</v>
+        <v>0.0008511093043943585</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09006441743288285</v>
+        <v>0.08981825300960189</v>
       </c>
       <c r="K4">
-        <v>0.3334639410303311</v>
+        <v>0.6059998672816249</v>
       </c>
       <c r="L4">
-        <v>0.108977716209921</v>
+        <v>0.1115842817459978</v>
       </c>
       <c r="M4">
-        <v>0.266491616841666</v>
+        <v>0.1560264276939094</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.028243822552582</v>
+        <v>3.049442378751877</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.471080245252097</v>
+        <v>0.7162616227155922</v>
       </c>
       <c r="C5">
-        <v>0.1658677918675124</v>
+        <v>0.1182002285074404</v>
       </c>
       <c r="D5">
-        <v>0.001431388846864223</v>
+        <v>0.05106326374868786</v>
       </c>
       <c r="E5">
-        <v>0.02834004089864672</v>
+        <v>0.05448092774163449</v>
       </c>
       <c r="F5">
-        <v>2.660422241300395</v>
+        <v>1.099676845921088</v>
       </c>
       <c r="G5">
-        <v>0.000871855500846436</v>
+        <v>0.0008521574228194473</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09027457358597601</v>
+        <v>0.09038187965333222</v>
       </c>
       <c r="K5">
-        <v>0.3202586363492159</v>
+        <v>0.5809212407688449</v>
       </c>
       <c r="L5">
-        <v>0.1068613922528314</v>
+        <v>0.1090798610168875</v>
       </c>
       <c r="M5">
-        <v>0.2578604898992189</v>
+        <v>0.1504360637623243</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.000824273512151</v>
+        <v>3.052961173531799</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.462043217868995</v>
+        <v>0.7113614921610178</v>
       </c>
       <c r="C6">
-        <v>0.1647251335530484</v>
+        <v>0.1181388383708679</v>
       </c>
       <c r="D6">
-        <v>0.001419179164955153</v>
+        <v>0.05081778144793958</v>
       </c>
       <c r="E6">
-        <v>0.02834584626870784</v>
+        <v>0.0544667201200042</v>
       </c>
       <c r="F6">
-        <v>2.654541436663791</v>
+        <v>1.099509328971685</v>
       </c>
       <c r="G6">
-        <v>0.0008721933755656546</v>
+        <v>0.0008523327638479382</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09030998873874374</v>
+        <v>0.09047650339436331</v>
       </c>
       <c r="K6">
-        <v>0.3180725806489235</v>
+        <v>0.5767577981147269</v>
       </c>
       <c r="L6">
-        <v>0.1065122567186023</v>
+        <v>0.1086653723467279</v>
       </c>
       <c r="M6">
-        <v>0.2564331045956081</v>
+        <v>0.1495090684165277</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.996312881756481</v>
+        <v>3.053609453926896</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.524960543174387</v>
+        <v>0.745398759173014</v>
       </c>
       <c r="C7">
-        <v>0.1726651879964294</v>
+        <v>0.1185662405759231</v>
       </c>
       <c r="D7">
-        <v>0.001504607975451933</v>
+        <v>0.05252468527229581</v>
       </c>
       <c r="E7">
-        <v>0.02830645392174214</v>
+        <v>0.05456965093954302</v>
       </c>
       <c r="F7">
-        <v>2.695680860754621</v>
+        <v>1.100803561824847</v>
       </c>
       <c r="G7">
-        <v>0.0008698611324673273</v>
+        <v>0.0008511233525749784</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09006721676779961</v>
+        <v>0.0898257848453845</v>
       </c>
       <c r="K7">
-        <v>0.3332853932164426</v>
+        <v>0.6056615861777459</v>
       </c>
       <c r="L7">
-        <v>0.1089490203961319</v>
+        <v>0.1115504137287431</v>
       </c>
       <c r="M7">
-        <v>0.2663748191458133</v>
+        <v>0.1559509468376241</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.027871209503985</v>
+        <v>3.049485523135814</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.807738310506068</v>
+        <v>0.8962954236402538</v>
       </c>
       <c r="C8">
-        <v>0.2079711603368679</v>
+        <v>0.120485178398603</v>
       </c>
       <c r="D8">
-        <v>0.001901049855447923</v>
+        <v>0.06013453884062869</v>
       </c>
       <c r="E8">
-        <v>0.02815539694773594</v>
+        <v>0.05513239531302538</v>
       </c>
       <c r="F8">
-        <v>2.885636217832626</v>
+        <v>1.109853882934985</v>
       </c>
       <c r="G8">
-        <v>0.0008598825196732252</v>
+        <v>0.0008459734275005291</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08907266765090149</v>
+        <v>0.08710586339832638</v>
       </c>
       <c r="K8">
-        <v>0.4014871515445861</v>
+        <v>0.7333904034105387</v>
       </c>
       <c r="L8">
-        <v>0.1200508931158666</v>
+        <v>0.1244890786079367</v>
       </c>
       <c r="M8">
-        <v>0.311157061566476</v>
+        <v>0.1845794718545513</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.17356351911161</v>
+        <v>3.040828702591824</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.385243186481205</v>
+        <v>1.195534847639465</v>
       </c>
       <c r="C9">
-        <v>0.27872187520029</v>
+        <v>0.1243777633754704</v>
       </c>
       <c r="D9">
-        <v>0.002777120853920678</v>
+        <v>0.07537534589299355</v>
       </c>
       <c r="E9">
-        <v>0.0279456301250014</v>
+        <v>0.0566441865546885</v>
       </c>
       <c r="F9">
-        <v>3.293593415918338</v>
+        <v>1.140478353160759</v>
       </c>
       <c r="G9">
-        <v>0.0008413552343963823</v>
+        <v>0.0008365232614150187</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08741208801756706</v>
+        <v>0.0823296100413824</v>
       </c>
       <c r="K9">
-        <v>0.5401562296342632</v>
+        <v>0.9851555946264057</v>
       </c>
       <c r="L9">
-        <v>0.1432658364113095</v>
+        <v>0.1506986249123443</v>
       </c>
       <c r="M9">
-        <v>0.4029733710643413</v>
+        <v>0.2416114979458293</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.486468491446772</v>
+        <v>3.060607578455375</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.828379704416761</v>
+        <v>1.418277777434383</v>
       </c>
       <c r="C10">
-        <v>0.3322216632404889</v>
+        <v>0.1273288795593288</v>
       </c>
       <c r="D10">
-        <v>0.003512663729127397</v>
+        <v>0.08680711209274961</v>
       </c>
       <c r="E10">
-        <v>0.02784932834417075</v>
+        <v>0.05802219709347867</v>
       </c>
       <c r="F10">
-        <v>3.620461703976446</v>
+        <v>1.171711749148756</v>
       </c>
       <c r="G10">
-        <v>0.0008282886924016815</v>
+        <v>0.0008299525408291406</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08638313154614607</v>
+        <v>0.07917296610699687</v>
       </c>
       <c r="K10">
-        <v>0.6461938328899706</v>
+        <v>1.17157771317639</v>
       </c>
       <c r="L10">
-        <v>0.1614056631100453</v>
+        <v>0.1705588772761288</v>
       </c>
       <c r="M10">
-        <v>0.473641545549782</v>
+        <v>0.2842292488586935</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.737280693918692</v>
+        <v>3.10002871856139</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.035284606248297</v>
+        <v>1.520443045922633</v>
       </c>
       <c r="C11">
-        <v>0.357041369280978</v>
+        <v>0.12869425713928</v>
       </c>
       <c r="D11">
-        <v>0.003875598316600559</v>
+        <v>0.09206825810938568</v>
       </c>
       <c r="E11">
-        <v>0.02781942009006722</v>
+        <v>0.05871147747762251</v>
       </c>
       <c r="F11">
-        <v>3.776443758937148</v>
+        <v>1.188026476487536</v>
       </c>
       <c r="G11">
-        <v>0.0008224407124432675</v>
+        <v>0.0008270387788074173</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08596012463988245</v>
+        <v>0.0778164459363957</v>
       </c>
       <c r="K11">
-        <v>0.6956273603652647</v>
+        <v>1.256860147358765</v>
       </c>
       <c r="L11">
-        <v>0.1699444532278633</v>
+        <v>0.179747363732794</v>
       </c>
       <c r="M11">
-        <v>0.5066823119049886</v>
+        <v>0.3038139791658523</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.857013950619731</v>
+        <v>3.123956292228456</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.114513447622869</v>
+        <v>1.559268919218368</v>
       </c>
       <c r="C12">
-        <v>0.3665236396104206</v>
+        <v>0.1292148542958813</v>
       </c>
       <c r="D12">
-        <v>0.004017927083085127</v>
+        <v>0.09407009318903192</v>
       </c>
       <c r="E12">
-        <v>0.02781022597593141</v>
+        <v>0.0589818481636577</v>
       </c>
       <c r="F12">
-        <v>3.836688385945337</v>
+        <v>1.194526023679373</v>
       </c>
       <c r="G12">
-        <v>0.0008202379965864593</v>
+        <v>0.000825945771571358</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.085806764771025</v>
+        <v>0.07731446528091368</v>
       </c>
       <c r="K12">
-        <v>0.7145459964540919</v>
+        <v>1.289237050459491</v>
       </c>
       <c r="L12">
-        <v>0.1732239142574699</v>
+        <v>0.1832509005426317</v>
       </c>
       <c r="M12">
-        <v>0.5193407324787742</v>
+        <v>0.311262242812731</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.903266864559455</v>
+        <v>3.133931813798455</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.097409083562127</v>
+        <v>1.550900637695179</v>
       </c>
       <c r="C13">
-        <v>0.3644775005153065</v>
+        <v>0.1291025716494048</v>
       </c>
       <c r="D13">
-        <v>0.003987042086652792</v>
+        <v>0.09363852375806658</v>
       </c>
       <c r="E13">
-        <v>0.0278121089735972</v>
+        <v>0.05892319661848511</v>
       </c>
       <c r="F13">
-        <v>3.823659032309649</v>
+        <v>1.193111620645908</v>
       </c>
       <c r="G13">
-        <v>0.0008207119011183706</v>
+        <v>0.0008261807165805674</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08583948422004894</v>
+        <v>0.07742205061332008</v>
       </c>
       <c r="K13">
-        <v>0.7104622021477525</v>
+        <v>1.282260218530865</v>
       </c>
       <c r="L13">
-        <v>0.1725154960792921</v>
+        <v>0.1824952493328595</v>
       </c>
       <c r="M13">
-        <v>0.5166076842840823</v>
+        <v>0.3096566461629493</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.893263140926265</v>
+        <v>3.131741849269702</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.041784509130821</v>
+        <v>1.523634401115544</v>
       </c>
       <c r="C14">
-        <v>0.3578197185670149</v>
+        <v>0.1287370140634536</v>
       </c>
       <c r="D14">
-        <v>0.003887204606515482</v>
+        <v>0.09223275396822572</v>
       </c>
       <c r="E14">
-        <v>0.0278186201376176</v>
+        <v>0.05873353128354708</v>
       </c>
       <c r="F14">
-        <v>3.781375725170392</v>
+        <v>1.188554643444405</v>
       </c>
       <c r="G14">
-        <v>0.0008222592697832417</v>
+        <v>0.0008269486513590097</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08594736877875064</v>
+        <v>0.07777491145428073</v>
       </c>
       <c r="K14">
-        <v>0.697179648131943</v>
+        <v>1.259522084173398</v>
       </c>
       <c r="L14">
-        <v>0.1702133052955688</v>
+        <v>0.1800351082318983</v>
       </c>
       <c r="M14">
-        <v>0.5077206785413395</v>
+        <v>0.3044260908813854</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.860800292643376</v>
+        <v>3.124758338536765</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.007830838817995</v>
+        <v>1.506951571143162</v>
       </c>
       <c r="C15">
-        <v>0.3537529716431891</v>
+        <v>0.1285135711583507</v>
       </c>
       <c r="D15">
-        <v>0.003826714842402268</v>
+        <v>0.09137294858107481</v>
       </c>
       <c r="E15">
-        <v>0.02782289026244378</v>
+        <v>0.05861858579192436</v>
       </c>
       <c r="F15">
-        <v>3.755633432708009</v>
+        <v>1.18580580768328</v>
       </c>
       <c r="G15">
-        <v>0.0008232085489356622</v>
+        <v>0.0008274203701994114</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08601435063333973</v>
+        <v>0.07799258172160251</v>
       </c>
       <c r="K15">
-        <v>0.6890705062836702</v>
+        <v>1.245605456762092</v>
       </c>
       <c r="L15">
-        <v>0.1688092884927883</v>
+        <v>0.1785313927958256</v>
       </c>
       <c r="M15">
-        <v>0.5022967954467106</v>
+        <v>0.3012264945347667</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.841037918067215</v>
+        <v>3.120601477907513</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.814974441476409</v>
+        <v>1.411619378883756</v>
       </c>
       <c r="C16">
-        <v>0.3306105211533747</v>
+        <v>0.1272401318789065</v>
       </c>
       <c r="D16">
-        <v>0.003489582624283116</v>
+        <v>0.08646457513163597</v>
       </c>
       <c r="E16">
-        <v>0.02785157353810463</v>
+        <v>0.05797843889552823</v>
       </c>
       <c r="F16">
-        <v>3.610425317411284</v>
+        <v>1.170689493148103</v>
       </c>
       <c r="G16">
-        <v>0.0008286726363162447</v>
+        <v>0.0008301444387304623</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08641171142894954</v>
+        <v>0.0792632401047868</v>
       </c>
       <c r="K16">
-        <v>0.6429895653973787</v>
+        <v>1.166015061570874</v>
       </c>
       <c r="L16">
-        <v>0.1608538004017674</v>
+        <v>0.1699616470284369</v>
       </c>
       <c r="M16">
-        <v>0.4715017355375082</v>
+        <v>0.2829536143974209</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.72957773624583</v>
+        <v>3.098590041801685</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.698102621727855</v>
+        <v>1.353362993576667</v>
       </c>
       <c r="C17">
-        <v>0.3165465234864371</v>
+        <v>0.1264649648524809</v>
       </c>
       <c r="D17">
-        <v>0.003290566749431179</v>
+        <v>0.08346957544392808</v>
       </c>
       <c r="E17">
-        <v>0.02787281852181955</v>
+        <v>0.05760197857845561</v>
       </c>
       <c r="F17">
-        <v>3.523299267194972</v>
+        <v>1.161968493345782</v>
       </c>
       <c r="G17">
-        <v>0.0008320479042271955</v>
+        <v>0.0008318345347558362</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08666725546325793</v>
+        <v>0.08006329033083404</v>
       </c>
       <c r="K17">
-        <v>0.6150452349415261</v>
+        <v>1.11732071292991</v>
       </c>
       <c r="L17">
-        <v>0.1560500648400165</v>
+        <v>0.1647451412079661</v>
       </c>
       <c r="M17">
-        <v>0.4528510669156631</v>
+        <v>0.2717968593069742</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.662713410422199</v>
+        <v>3.086658454602571</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.631374269224295</v>
+        <v>1.31993325260197</v>
       </c>
       <c r="C18">
-        <v>0.3085017427960963</v>
+        <v>0.1260212474958067</v>
       </c>
       <c r="D18">
-        <v>0.003178709442828165</v>
+        <v>0.08175259969225124</v>
       </c>
       <c r="E18">
-        <v>0.02788633741750735</v>
+        <v>0.05739129937494525</v>
       </c>
       <c r="F18">
-        <v>3.473864093368888</v>
+        <v>1.157149492734305</v>
       </c>
       <c r="G18">
-        <v>0.0008339984434879806</v>
+        <v>0.0008328137488484481</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08681845733584304</v>
+        <v>0.08053091879646246</v>
       </c>
       <c r="K18">
-        <v>0.5990832149322358</v>
+        <v>1.089357142213117</v>
       </c>
       <c r="L18">
-        <v>0.153313772948735</v>
+        <v>0.1617591138887775</v>
       </c>
       <c r="M18">
-        <v>0.4422065939425721</v>
+        <v>0.2653981722900056</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.624778720403739</v>
+        <v>3.080356612111785</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.608862655488849</v>
+        <v>1.308627362957424</v>
       </c>
       <c r="C19">
-        <v>0.3057851479444764</v>
+        <v>0.1258713719569471</v>
       </c>
       <c r="D19">
-        <v>0.003141261876944412</v>
+        <v>0.08117221093562677</v>
       </c>
       <c r="E19">
-        <v>0.02789113410437905</v>
+        <v>0.05732096071624859</v>
       </c>
       <c r="F19">
-        <v>3.457238822511357</v>
+        <v>1.155551165413456</v>
       </c>
       <c r="G19">
-        <v>0.000834660496529276</v>
+        <v>0.0008331465295226672</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08687036658080594</v>
+        <v>0.0806905229502668</v>
       </c>
       <c r="K19">
-        <v>0.593697004018864</v>
+        <v>1.079896340191056</v>
       </c>
       <c r="L19">
-        <v>0.1523917591556412</v>
+        <v>0.1607505079109259</v>
       </c>
       <c r="M19">
-        <v>0.4386162765541854</v>
+        <v>0.2632347408615736</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.612021744702574</v>
+        <v>3.078317704419931</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.710491997919405</v>
+        <v>1.359556311035163</v>
       </c>
       <c r="C20">
-        <v>0.3180389610841985</v>
+        <v>0.1265472595611143</v>
       </c>
       <c r="D20">
-        <v>0.003311476496516974</v>
+        <v>0.08378780585014312</v>
       </c>
       <c r="E20">
-        <v>0.02787042157830788</v>
+        <v>0.05764144521033288</v>
       </c>
       <c r="F20">
-        <v>3.532502979634359</v>
+        <v>1.162876330061763</v>
       </c>
       <c r="G20">
-        <v>0.0008316876655755019</v>
+        <v>0.0008316538879315033</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08663961327643399</v>
+        <v>0.07997734949954172</v>
       </c>
       <c r="K20">
-        <v>0.6180083001102119</v>
+        <v>1.122499647082662</v>
       </c>
       <c r="L20">
-        <v>0.1565586356464408</v>
+        <v>0.1652989465635031</v>
       </c>
       <c r="M20">
-        <v>0.4548277579332165</v>
+        <v>0.272982587589425</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.66977630826085</v>
+        <v>3.087870172513618</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.058097985401275</v>
+        <v>1.531639261587287</v>
       </c>
       <c r="C21">
-        <v>0.3597728800924642</v>
+        <v>0.1288442883849399</v>
       </c>
       <c r="D21">
-        <v>0.003916389374044371</v>
+        <v>0.09264539660139803</v>
       </c>
       <c r="E21">
-        <v>0.0278166486493916</v>
+        <v>0.0587889835464388</v>
       </c>
       <c r="F21">
-        <v>3.793762291943864</v>
+        <v>1.189884257745149</v>
       </c>
       <c r="G21">
-        <v>0.0008218044675156475</v>
+        <v>0.0008267228125532993</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08591549235953799</v>
+        <v>0.0776709477108728</v>
       </c>
       <c r="K21">
-        <v>0.7010754168626363</v>
+        <v>1.266198478998348</v>
       </c>
       <c r="L21">
-        <v>0.1708882254008586</v>
+        <v>0.1807570424824689</v>
       </c>
       <c r="M21">
-        <v>0.510326874183491</v>
+        <v>0.3059615352962624</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.870309783146595</v>
+        <v>3.126784303413928</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.290461207923215</v>
+        <v>1.644919451279861</v>
       </c>
       <c r="C22">
-        <v>0.3875435046772964</v>
+        <v>0.1303664103801978</v>
       </c>
       <c r="D22">
-        <v>0.004340726163786002</v>
+        <v>0.09849044578108135</v>
       </c>
       <c r="E22">
-        <v>0.02779400499668672</v>
+        <v>0.05959368922580488</v>
       </c>
       <c r="F22">
-        <v>3.971445428167328</v>
+        <v>1.209419094440037</v>
       </c>
       <c r="G22">
-        <v>0.0008154128279423348</v>
+        <v>0.0008235602894531289</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08548219808721136</v>
+        <v>0.07623194435146097</v>
       </c>
       <c r="K22">
-        <v>0.7565408217832186</v>
+        <v>1.360600672214588</v>
       </c>
       <c r="L22">
-        <v>0.1805242061696006</v>
+        <v>0.191001007917464</v>
       </c>
       <c r="M22">
-        <v>0.5474632024811541</v>
+        <v>0.3277032381553511</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.006744817200982</v>
+        <v>3.157575435169804</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.165929402137749</v>
+        <v>1.584379068816446</v>
       </c>
       <c r="C23">
-        <v>0.372671336724693</v>
+        <v>0.1295520207234091</v>
       </c>
       <c r="D23">
-        <v>0.004111294379681496</v>
+        <v>0.09536541636641971</v>
       </c>
       <c r="E23">
-        <v>0.02780489754450599</v>
+        <v>0.05915906360696788</v>
       </c>
       <c r="F23">
-        <v>3.875931293728058</v>
+        <v>1.198814152466056</v>
       </c>
       <c r="G23">
-        <v>0.0008188187086689371</v>
+        <v>0.0008252428352353139</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08570967573818322</v>
+        <v>0.07699361516695369</v>
       </c>
       <c r="K23">
-        <v>0.7268204410924497</v>
+        <v>1.310167172431932</v>
       </c>
       <c r="L23">
-        <v>0.1753548135223397</v>
+        <v>0.1855200217308166</v>
       </c>
       <c r="M23">
-        <v>0.5275572065635785</v>
+        <v>0.3160808453807462</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.933398323890657</v>
+        <v>3.140632965739371</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.704889327794092</v>
+        <v>1.356756118442149</v>
       </c>
       <c r="C24">
-        <v>0.3173641040194184</v>
+        <v>0.1265100481115766</v>
       </c>
       <c r="D24">
-        <v>0.00330201528777252</v>
+        <v>0.08364391871485566</v>
       </c>
       <c r="E24">
-        <v>0.0278715011818762</v>
+        <v>0.05762358445565141</v>
       </c>
       <c r="F24">
-        <v>3.528339951444934</v>
+        <v>1.162465291658535</v>
       </c>
       <c r="G24">
-        <v>0.0008318504978849367</v>
+        <v>0.0008317355347659504</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08665209698394882</v>
+        <v>0.08001617948327322</v>
       </c>
       <c r="K24">
-        <v>0.6166683778336619</v>
+        <v>1.120158153976973</v>
       </c>
       <c r="L24">
-        <v>0.1563286318984538</v>
+        <v>0.1650485307782077</v>
       </c>
       <c r="M24">
-        <v>0.4539338541755171</v>
+        <v>0.2724464718791708</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.666581602063957</v>
+        <v>3.087320621404842</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.226082638026242</v>
+        <v>1.1141405041231</v>
       </c>
       <c r="C25">
-        <v>0.2593619906157869</v>
+        <v>0.1233096457246745</v>
       </c>
       <c r="D25">
-        <v>0.0025265276355384</v>
+        <v>0.0712142352828522</v>
       </c>
       <c r="E25">
-        <v>0.02799263456522283</v>
+        <v>0.05618966393798352</v>
       </c>
       <c r="F25">
-        <v>3.178896076340322</v>
+        <v>1.130727137800847</v>
       </c>
       <c r="G25">
-        <v>0.0008462646450262401</v>
+        <v>0.000839012648482368</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08782889132480065</v>
+        <v>0.08356077599532874</v>
       </c>
       <c r="K25">
-        <v>0.5020030473264967</v>
+        <v>0.9168425030069329</v>
       </c>
       <c r="L25">
-        <v>0.1368111776666723</v>
+        <v>0.1435093145241453</v>
       </c>
       <c r="M25">
-        <v>0.3776313708506365</v>
+        <v>0.2260702052001093</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.398484829155024</v>
+        <v>3.051075080943235</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_1/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9373763136738376</v>
+        <v>3.639297129245051</v>
       </c>
       <c r="C2">
-        <v>0.1210134643188781</v>
+        <v>0.9954155328274226</v>
       </c>
       <c r="D2">
-        <v>0.06221652456233073</v>
+        <v>0.03898913623710598</v>
       </c>
       <c r="E2">
-        <v>0.05531185234623237</v>
+        <v>1.441922359378012</v>
       </c>
       <c r="F2">
-        <v>1.113146578240546</v>
+        <v>0.4605004832323445</v>
       </c>
       <c r="G2">
-        <v>0.0008446227863646027</v>
+        <v>0.0007686809952637855</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08640618957011448</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7680626568773334</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1280481608340125</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1923906767110211</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.040883712104886</v>
+        <v>1.208600237614888</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8184626849995027</v>
+        <v>3.163926660293328</v>
       </c>
       <c r="C3">
-        <v>0.1194908279790212</v>
+        <v>0.8738301893891673</v>
       </c>
       <c r="D3">
-        <v>0.05620135089939282</v>
+        <v>0.03462429524203259</v>
       </c>
       <c r="E3">
-        <v>0.05482187745795741</v>
+        <v>1.235854890260782</v>
       </c>
       <c r="F3">
-        <v>1.104550909847227</v>
+        <v>0.4140919297068777</v>
       </c>
       <c r="G3">
-        <v>0.0008485897870263992</v>
+        <v>0.0007740569087419503</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08847737183655902</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6675857393915834</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1177870507586434</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1697995377482968</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.043448001491527</v>
+        <v>1.104349497267975</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7457973813547483</v>
+        <v>2.873012578389137</v>
       </c>
       <c r="C4">
-        <v>0.1185712592146473</v>
+        <v>0.7993378641016591</v>
       </c>
       <c r="D4">
-        <v>0.05254469887049851</v>
+        <v>0.03195374705860843</v>
       </c>
       <c r="E4">
-        <v>0.05457091392534608</v>
+        <v>1.112018506115731</v>
       </c>
       <c r="F4">
-        <v>1.100820493825964</v>
+        <v>0.3874158420567042</v>
       </c>
       <c r="G4">
-        <v>0.0008511093043943585</v>
+        <v>0.0007774440430916593</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08981825300960189</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6059998672816249</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1115842817459978</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1560264276939094</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.049442378751877</v>
+        <v>1.046477410931772</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7162616227155922</v>
+        <v>2.754637414378635</v>
       </c>
       <c r="C5">
-        <v>0.1182002285074404</v>
+        <v>0.7690066449735298</v>
       </c>
       <c r="D5">
-        <v>0.05106326374868786</v>
+        <v>0.03086722398415276</v>
       </c>
       <c r="E5">
-        <v>0.05448092774163449</v>
+        <v>1.062125557461115</v>
       </c>
       <c r="F5">
-        <v>1.099676845921088</v>
+        <v>0.3769626004365563</v>
       </c>
       <c r="G5">
-        <v>0.0008521574228194473</v>
+        <v>0.0007788469445427952</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09038187965333222</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5809212407688449</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1090798610168875</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1504360637623243</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.052961173531799</v>
+        <v>1.024306193568947</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7113614921610178</v>
+        <v>2.734989976010297</v>
       </c>
       <c r="C6">
-        <v>0.1181388383708679</v>
+        <v>0.7639712490239674</v>
       </c>
       <c r="D6">
-        <v>0.05081778144793958</v>
+        <v>0.03068689589320428</v>
       </c>
       <c r="E6">
-        <v>0.0544667201200042</v>
+        <v>1.053872496020546</v>
       </c>
       <c r="F6">
-        <v>1.099509328971685</v>
+        <v>0.3752509494558538</v>
       </c>
       <c r="G6">
-        <v>0.0008523327638479382</v>
+        <v>0.000779081286801657</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09047650339436331</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5767577981147269</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1086653723467279</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1495090684165277</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.053609453926896</v>
+        <v>1.020706307984653</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.745398759173014</v>
+        <v>2.871415508127143</v>
       </c>
       <c r="C7">
-        <v>0.1185662405759231</v>
+        <v>0.7989287250678387</v>
       </c>
       <c r="D7">
-        <v>0.05252468527229581</v>
+        <v>0.03193908754566621</v>
       </c>
       <c r="E7">
-        <v>0.05456965093954302</v>
+        <v>1.111343450545846</v>
       </c>
       <c r="F7">
-        <v>1.100803561824847</v>
+        <v>0.3872732262943899</v>
       </c>
       <c r="G7">
-        <v>0.0008511233525749784</v>
+        <v>0.0007774628703471185</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0898257848453845</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6056615861777459</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1115504137287431</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1559509468376241</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.049485523135814</v>
+        <v>1.046172851185844</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8962954236402538</v>
+        <v>3.475146169237348</v>
       </c>
       <c r="C8">
-        <v>0.120485178398603</v>
+        <v>0.9534495003956067</v>
       </c>
       <c r="D8">
-        <v>0.06013453884062869</v>
+        <v>0.03748176335487585</v>
       </c>
       <c r="E8">
-        <v>0.05513239531302538</v>
+        <v>1.370245579812007</v>
       </c>
       <c r="F8">
-        <v>1.109853882934985</v>
+        <v>0.4440963412042933</v>
       </c>
       <c r="G8">
-        <v>0.0008459734275005291</v>
+        <v>0.0007705172717353615</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08710586339832638</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7333904034105387</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1244890786079367</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1845794718545513</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.040828702591824</v>
+        <v>1.171298389780702</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.195534847639465</v>
+        <v>4.670153159864412</v>
       </c>
       <c r="C9">
-        <v>0.1243777633754704</v>
+        <v>1.25854120576895</v>
       </c>
       <c r="D9">
-        <v>0.07537534589299355</v>
+        <v>0.04845951825805628</v>
       </c>
       <c r="E9">
-        <v>0.0566441865546885</v>
+        <v>1.904628270821107</v>
       </c>
       <c r="F9">
-        <v>1.140478353160759</v>
+        <v>0.5719243957679723</v>
       </c>
       <c r="G9">
-        <v>0.0008365232614150187</v>
+        <v>0.0007575363395391445</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0823296100413824</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9851555946264057</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1506986249123443</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2416114979458293</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.060607578455375</v>
+        <v>1.471852032810375</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.418277777434383</v>
+        <v>5.560268806890804</v>
       </c>
       <c r="C10">
-        <v>0.1273288795593288</v>
+        <v>1.485214488906252</v>
       </c>
       <c r="D10">
-        <v>0.08680711209274961</v>
+        <v>0.05664530721055883</v>
       </c>
       <c r="E10">
-        <v>0.05802219709347867</v>
+        <v>2.322005527160329</v>
       </c>
       <c r="F10">
-        <v>1.171711749148756</v>
+        <v>0.6788586430795363</v>
       </c>
       <c r="G10">
-        <v>0.0008299525408291406</v>
+        <v>0.0007483187425436127</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07917296610699687</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.17157771317639</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1705588772761288</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2842292488586935</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.10002871856139</v>
+        <v>1.736287612921188</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.520443045922633</v>
+        <v>5.969211083351865</v>
       </c>
       <c r="C11">
-        <v>0.12869425713928</v>
+        <v>1.589203920418356</v>
       </c>
       <c r="D11">
-        <v>0.09206825810938568</v>
+        <v>0.06040982474324608</v>
       </c>
       <c r="E11">
-        <v>0.05871147747762251</v>
+        <v>2.519515414215107</v>
       </c>
       <c r="F11">
-        <v>1.188026476487536</v>
+        <v>0.7310970168233126</v>
       </c>
       <c r="G11">
-        <v>0.0008270387788074173</v>
+        <v>0.0007441769524084341</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0778164459363957</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.256860147358765</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.179747363732794</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3038139791658523</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.123956292228456</v>
+        <v>1.868589470172623</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.559268919218368</v>
+        <v>6.124773827319245</v>
       </c>
       <c r="C12">
-        <v>0.1292148542958813</v>
+        <v>1.628738126228427</v>
       </c>
       <c r="D12">
-        <v>0.09407009318903192</v>
+        <v>0.06184261659738866</v>
       </c>
       <c r="E12">
-        <v>0.0589818481636577</v>
+        <v>2.59562948098278</v>
       </c>
       <c r="F12">
-        <v>1.194526023679373</v>
+        <v>0.7514676455013642</v>
       </c>
       <c r="G12">
-        <v>0.000825945771571358</v>
+        <v>0.0007426142563734144</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07731446528091368</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.289237050459491</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1832509005426317</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.311262242812731</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.133931813798455</v>
+        <v>1.920657000486727</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.550900637695179</v>
+        <v>6.091237065252074</v>
       </c>
       <c r="C13">
-        <v>0.1291025716494048</v>
+        <v>1.62021628777336</v>
       </c>
       <c r="D13">
-        <v>0.09363852375806658</v>
+        <v>0.0615336923972265</v>
       </c>
       <c r="E13">
-        <v>0.05892319661848511</v>
+        <v>2.579174270918756</v>
       </c>
       <c r="F13">
-        <v>1.193111620645908</v>
+        <v>0.7470530197557252</v>
       </c>
       <c r="G13">
-        <v>0.0008261807165805674</v>
+        <v>0.0007429505859019447</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07742205061332008</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.282260218530865</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1824952493328595</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3096566461629493</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.131741849269702</v>
+        <v>1.909351657525605</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.523634401115544</v>
+        <v>5.981994411985397</v>
       </c>
       <c r="C14">
-        <v>0.1287370140634536</v>
+        <v>1.59245311887048</v>
       </c>
       <c r="D14">
-        <v>0.09223275396822572</v>
+        <v>0.06052754737639532</v>
       </c>
       <c r="E14">
-        <v>0.05873353128354708</v>
+        <v>2.525749484437696</v>
       </c>
       <c r="F14">
-        <v>1.188554643444405</v>
+        <v>0.7327606687664314</v>
       </c>
       <c r="G14">
-        <v>0.0008269486513590097</v>
+        <v>0.0007440482843727255</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07777491145428073</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.259522084173398</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1800351082318983</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3044260908813854</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.124758338536765</v>
+        <v>1.872832176201655</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.506951571143162</v>
+        <v>5.915175981730897</v>
       </c>
       <c r="C15">
-        <v>0.1285135711583507</v>
+        <v>1.575468599796352</v>
       </c>
       <c r="D15">
-        <v>0.09137294858107481</v>
+        <v>0.05991224352278834</v>
       </c>
       <c r="E15">
-        <v>0.05861858579192436</v>
+        <v>2.493204529720103</v>
       </c>
       <c r="F15">
-        <v>1.18580580768328</v>
+        <v>0.7240852042093451</v>
       </c>
       <c r="G15">
-        <v>0.0008274203701994114</v>
+        <v>0.000744721346776587</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07799258172160251</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.245605456762092</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1785313927958256</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3012264945347667</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.120601477907513</v>
+        <v>1.850726843422734</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.411619378883756</v>
+        <v>5.53363491942747</v>
       </c>
       <c r="C16">
-        <v>0.1272401318789065</v>
+        <v>1.478438606471798</v>
       </c>
       <c r="D16">
-        <v>0.08646457513163597</v>
+        <v>0.05640022152631019</v>
       </c>
       <c r="E16">
-        <v>0.05797843889552823</v>
+        <v>2.309269822762175</v>
       </c>
       <c r="F16">
-        <v>1.170689493148103</v>
+        <v>0.6755230432628423</v>
       </c>
       <c r="G16">
-        <v>0.0008301444387304623</v>
+        <v>0.0007485903130532989</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0792632401047868</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.166015061570874</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1699616470284369</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2829536143974209</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.098590041801685</v>
+        <v>1.727902952230721</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.353362993576667</v>
+        <v>5.300687919728546</v>
       </c>
       <c r="C17">
-        <v>0.1264649648524809</v>
+        <v>1.419157990854444</v>
       </c>
       <c r="D17">
-        <v>0.08346957544392808</v>
+        <v>0.05425707574409699</v>
       </c>
       <c r="E17">
-        <v>0.05760197857845561</v>
+        <v>2.198537140315693</v>
       </c>
       <c r="F17">
-        <v>1.161968493345782</v>
+        <v>0.6467009445061791</v>
       </c>
       <c r="G17">
-        <v>0.0008318345347558362</v>
+        <v>0.0007509758215070161</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08006329033083404</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.11732071292991</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1647451412079661</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2717968593069742</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.086658454602571</v>
+        <v>1.655792619796131</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.31993325260197</v>
+        <v>5.167073336104238</v>
       </c>
       <c r="C18">
-        <v>0.1260212474958067</v>
+        <v>1.385141676507658</v>
       </c>
       <c r="D18">
-        <v>0.08175259969225124</v>
+        <v>0.05302813720694388</v>
       </c>
       <c r="E18">
-        <v>0.05739129937494525</v>
+        <v>2.135550865997416</v>
       </c>
       <c r="F18">
-        <v>1.157149492734305</v>
+        <v>0.6304566638523852</v>
       </c>
       <c r="G18">
-        <v>0.0008328137488484481</v>
+        <v>0.0007523528468301177</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08053091879646246</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.089357142213117</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1617591138887775</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2653981722900056</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.080356612111785</v>
+        <v>1.615430967274676</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.308627362957424</v>
+        <v>5.121893730647344</v>
       </c>
       <c r="C19">
-        <v>0.1258713719569471</v>
+        <v>1.373637281602043</v>
       </c>
       <c r="D19">
-        <v>0.08117221093562677</v>
+        <v>0.05261264338035687</v>
       </c>
       <c r="E19">
-        <v>0.05732096071624859</v>
+        <v>2.114339516159717</v>
       </c>
       <c r="F19">
-        <v>1.155551165413456</v>
+        <v>0.625011828509713</v>
       </c>
       <c r="G19">
-        <v>0.0008331465295226672</v>
+        <v>0.0007528199807482719</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0806905229502668</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.079896340191056</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1607505079109259</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2632347408615736</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.078317704419931</v>
+        <v>1.601949714868709</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.359556311035163</v>
+        <v>5.325446324771633</v>
       </c>
       <c r="C20">
-        <v>0.1265472595611143</v>
+        <v>1.425459995105768</v>
       </c>
       <c r="D20">
-        <v>0.08378780585014312</v>
+        <v>0.05448482054296733</v>
       </c>
       <c r="E20">
-        <v>0.05764144521033288</v>
+        <v>2.210250434711142</v>
       </c>
       <c r="F20">
-        <v>1.162876330061763</v>
+        <v>0.6497341005681392</v>
       </c>
       <c r="G20">
-        <v>0.0008316538879315033</v>
+        <v>0.0007507213798648098</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07997734949954172</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.122499647082662</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1652989465635031</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.272982587589425</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.087870172513618</v>
+        <v>1.663351909176043</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.531639261587287</v>
+        <v>6.014061404798156</v>
       </c>
       <c r="C21">
-        <v>0.1288442883849399</v>
+        <v>1.600603352844928</v>
       </c>
       <c r="D21">
-        <v>0.09264539660139803</v>
+        <v>0.06082286766925193</v>
       </c>
       <c r="E21">
-        <v>0.0587889835464388</v>
+        <v>2.541403832657366</v>
       </c>
       <c r="F21">
-        <v>1.189884257745149</v>
+        <v>0.7369420707503735</v>
       </c>
       <c r="G21">
-        <v>0.0008267228125532993</v>
+        <v>0.0007437257231604488</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0776709477108728</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.266198478998348</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1807570424824689</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3059615352962624</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.126784303413928</v>
+        <v>1.883503363258569</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.644919451279861</v>
+        <v>6.468291637405798</v>
       </c>
       <c r="C22">
-        <v>0.1303664103801978</v>
+        <v>1.715993697539091</v>
       </c>
       <c r="D22">
-        <v>0.09849044578108135</v>
+        <v>0.06500821190251571</v>
       </c>
       <c r="E22">
-        <v>0.05959368922580488</v>
+        <v>2.76566328394901</v>
       </c>
       <c r="F22">
-        <v>1.209419094440037</v>
+        <v>0.7974113547351038</v>
       </c>
       <c r="G22">
-        <v>0.0008235602894531289</v>
+        <v>0.0007391860033399157</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07623194435146097</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.360600672214588</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.191001007917464</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3277032381553511</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.157575435169804</v>
+        <v>2.038988414660309</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.584379068816446</v>
+        <v>6.225432000269564</v>
       </c>
       <c r="C23">
-        <v>0.1295520207234091</v>
+        <v>1.654312258275127</v>
       </c>
       <c r="D23">
-        <v>0.09536541636641971</v>
+        <v>0.06276995956053355</v>
       </c>
       <c r="E23">
-        <v>0.05915906360696788</v>
+        <v>2.645172295040652</v>
       </c>
       <c r="F23">
-        <v>1.198814152466056</v>
+        <v>0.7647936384224749</v>
       </c>
       <c r="G23">
-        <v>0.0008252428352353139</v>
+        <v>0.0007416065873020089</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07699361516695369</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.310167172431932</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1855200217308166</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3160808453807462</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.140632965739371</v>
+        <v>1.954853820018542</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.356756118442149</v>
+        <v>5.314252094415224</v>
       </c>
       <c r="C24">
-        <v>0.1265100481115766</v>
+        <v>1.422610659040799</v>
       </c>
       <c r="D24">
-        <v>0.08364391871485566</v>
+        <v>0.0543818473026505</v>
       </c>
       <c r="E24">
-        <v>0.05762358445565141</v>
+        <v>2.204952766859662</v>
       </c>
       <c r="F24">
-        <v>1.162465291658535</v>
+        <v>0.6483618008775949</v>
       </c>
       <c r="G24">
-        <v>0.0008317355347659504</v>
+        <v>0.0007508363954645825</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08001617948327322</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.120158153976973</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1650485307782077</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2724464718791708</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.087320621404842</v>
+        <v>1.659930959915187</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.1141405041231</v>
+        <v>4.34516289540062</v>
       </c>
       <c r="C25">
-        <v>0.1233096457246745</v>
+        <v>1.175662098009525</v>
       </c>
       <c r="D25">
-        <v>0.0712142352828522</v>
+        <v>0.04547296341502971</v>
       </c>
       <c r="E25">
-        <v>0.05618966393798352</v>
+        <v>1.75639716116838</v>
       </c>
       <c r="F25">
-        <v>1.130727137800847</v>
+        <v>0.5352944310287526</v>
       </c>
       <c r="G25">
-        <v>0.000839012648482368</v>
+        <v>0.0007609863970889205</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08356077599532874</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9168425030069329</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1435093145241453</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2260702052001093</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.051075080943235</v>
+        <v>1.383668787425194</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,31 +415,37 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.639297129245051</v>
+        <v>3.549822446526662</v>
       </c>
       <c r="C2">
-        <v>0.9954155328274226</v>
+        <v>0.9524166978794426</v>
       </c>
       <c r="D2">
-        <v>0.03898913623710598</v>
+        <v>0.04302524482999814</v>
       </c>
       <c r="E2">
-        <v>1.441922359378012</v>
+        <v>1.385468820577586</v>
       </c>
       <c r="F2">
-        <v>0.4605004832323445</v>
+        <v>0.491692355984604</v>
       </c>
       <c r="G2">
-        <v>0.0007686809952637855</v>
+        <v>0.0007813283429335224</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01471837629227213</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -460,33 +466,39 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.208600237614888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.348258430430576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.163926660293328</v>
+        <v>3.090181132606517</v>
       </c>
       <c r="C3">
-        <v>0.8738301893891673</v>
+        <v>0.8361708929421923</v>
       </c>
       <c r="D3">
-        <v>0.03462429524203259</v>
+        <v>0.03850740119924012</v>
       </c>
       <c r="E3">
-        <v>1.235854890260782</v>
+        <v>1.20593730521523</v>
       </c>
       <c r="F3">
-        <v>0.4140919297068777</v>
+        <v>0.4487998918271998</v>
       </c>
       <c r="G3">
-        <v>0.0007740569087419503</v>
+        <v>0.0007855944593566255</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01065295108185764</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -507,33 +519,39 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.104349497267975</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.254394858798349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.873012578389137</v>
+        <v>2.80823540361655</v>
       </c>
       <c r="C4">
-        <v>0.7993378641016591</v>
+        <v>0.7648317453560765</v>
       </c>
       <c r="D4">
-        <v>0.03195374705860843</v>
+        <v>0.035718452606325</v>
       </c>
       <c r="E4">
-        <v>1.112018506115731</v>
+        <v>1.096191428738507</v>
       </c>
       <c r="F4">
-        <v>0.3874158420567042</v>
+        <v>0.4236863833421509</v>
       </c>
       <c r="G4">
-        <v>0.0007774440430916593</v>
+        <v>0.0007882899183532002</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.008417344124682535</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -554,33 +572,39 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.046477410931772</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.200729231189683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.754637414378635</v>
+        <v>2.69336830127429</v>
       </c>
       <c r="C5">
-        <v>0.7690066449735298</v>
+        <v>0.735760656937515</v>
       </c>
       <c r="D5">
-        <v>0.03086722398415276</v>
+        <v>0.03457804879749204</v>
       </c>
       <c r="E5">
-        <v>1.062125557461115</v>
+        <v>1.051563660363598</v>
       </c>
       <c r="F5">
-        <v>0.3769626004365563</v>
+        <v>0.4137361185402426</v>
       </c>
       <c r="G5">
-        <v>0.0007788469445427952</v>
+        <v>0.0007894079163685648</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00756604869468297</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -601,33 +625,39 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.024306193568947</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.179783104796343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.734989976010297</v>
+        <v>2.674295251989975</v>
       </c>
       <c r="C6">
-        <v>0.7639712490239674</v>
+        <v>0.7309331893764011</v>
       </c>
       <c r="D6">
-        <v>0.03068689589320428</v>
+        <v>0.03438844799774898</v>
       </c>
       <c r="E6">
-        <v>1.053872496020546</v>
+        <v>1.044158176106748</v>
       </c>
       <c r="F6">
-        <v>0.3752509494558538</v>
+        <v>0.412100347906204</v>
       </c>
       <c r="G6">
-        <v>0.000779081286801657</v>
+        <v>0.0007895947543308083</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.007428135307259609</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -648,33 +678,39 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.020706307984653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.176358662451975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.871415508127143</v>
+        <v>2.806686204463119</v>
       </c>
       <c r="C7">
-        <v>0.7989287250678387</v>
+        <v>0.7644396929856327</v>
       </c>
       <c r="D7">
-        <v>0.03193908754566621</v>
+        <v>0.03570308858955684</v>
       </c>
       <c r="E7">
-        <v>1.111343450545846</v>
+        <v>1.095589216017885</v>
       </c>
       <c r="F7">
-        <v>0.3872732262943899</v>
+        <v>0.4235510724214251</v>
       </c>
       <c r="G7">
-        <v>0.0007774628703471185</v>
+        <v>0.0007883049162942445</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.008405628856401559</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -695,33 +731,39 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.046172851185844</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.200443102606471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.475146169237348</v>
+        <v>3.391254924469365</v>
       </c>
       <c r="C8">
-        <v>0.9534495003956067</v>
+        <v>0.9123219957465096</v>
       </c>
       <c r="D8">
-        <v>0.03748176335487585</v>
+        <v>0.04147051924034884</v>
       </c>
       <c r="E8">
-        <v>1.370245579812007</v>
+        <v>1.323447908269785</v>
       </c>
       <c r="F8">
-        <v>0.4440963412042933</v>
+        <v>0.4766345846700517</v>
       </c>
       <c r="G8">
-        <v>0.0007705172717353615</v>
+        <v>0.0007827837976060438</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01325895997119919</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -742,33 +784,39 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.171298389780702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.315024847932506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.670153159864412</v>
+        <v>4.541855432840009</v>
       </c>
       <c r="C9">
-        <v>1.25854120576895</v>
+        <v>1.203059717042152</v>
       </c>
       <c r="D9">
-        <v>0.04845951825805628</v>
+        <v>0.05266891834645548</v>
       </c>
       <c r="E9">
-        <v>1.904628270821107</v>
+        <v>1.775499123247954</v>
       </c>
       <c r="F9">
-        <v>0.5719243957679723</v>
+        <v>0.5915717186664367</v>
       </c>
       <c r="G9">
-        <v>0.0007575363395391445</v>
+        <v>0.0007725383866591791</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.02511965229816204</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -789,33 +837,39 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.471852032810375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.574766914792775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.560268806890804</v>
+        <v>5.391248357049051</v>
       </c>
       <c r="C10">
-        <v>1.485214488906252</v>
+        <v>1.417124179127768</v>
       </c>
       <c r="D10">
-        <v>0.05664530721055883</v>
+        <v>0.06233088617828031</v>
       </c>
       <c r="E10">
-        <v>2.322005527160329</v>
+        <v>2.008907367560269</v>
       </c>
       <c r="F10">
-        <v>0.6788586430795363</v>
+        <v>0.6709401747436914</v>
       </c>
       <c r="G10">
-        <v>0.0007483187425436127</v>
+        <v>0.0007655321292788259</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.03478135184302689</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -836,33 +890,39 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.736287612921188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.748163966146109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.969211083351865</v>
+        <v>5.76499717043157</v>
       </c>
       <c r="C11">
-        <v>1.589203920418356</v>
+        <v>1.50929667681703</v>
       </c>
       <c r="D11">
-        <v>0.06040982474324608</v>
+        <v>0.0808042537866811</v>
       </c>
       <c r="E11">
-        <v>2.519515414215107</v>
+        <v>1.312911678412661</v>
       </c>
       <c r="F11">
-        <v>0.7310970168233126</v>
+        <v>0.5962842853966066</v>
       </c>
       <c r="G11">
-        <v>0.0007441769524084341</v>
+        <v>0.0007639813324701934</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04995399018534741</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -883,33 +943,39 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.868589470172623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.467075230471067</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.124773827319245</v>
+        <v>5.90162746081802</v>
       </c>
       <c r="C12">
-        <v>1.628738126228427</v>
+        <v>1.542371870960437</v>
       </c>
       <c r="D12">
-        <v>0.06184261659738866</v>
+        <v>0.09589711057294181</v>
       </c>
       <c r="E12">
-        <v>2.59562948098278</v>
+        <v>0.8094424028786165</v>
       </c>
       <c r="F12">
-        <v>0.7514676455013642</v>
+        <v>0.5203446335200326</v>
       </c>
       <c r="G12">
-        <v>0.0007426142563734144</v>
+        <v>0.0007639308874512763</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.08535229800060762</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -930,33 +996,39 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.920657000486727</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.213171670768276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.091237065252074</v>
+        <v>5.862237553768864</v>
       </c>
       <c r="C13">
-        <v>1.62021628777336</v>
+        <v>1.531453759032843</v>
       </c>
       <c r="D13">
-        <v>0.0615336923972265</v>
+        <v>0.1090414620708628</v>
       </c>
       <c r="E13">
-        <v>2.579174270918756</v>
+        <v>0.4257153639687132</v>
       </c>
       <c r="F13">
-        <v>0.7470530197557252</v>
+        <v>0.4390296916858034</v>
       </c>
       <c r="G13">
-        <v>0.0007429505859019447</v>
+        <v>0.000765031776876697</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1376435619250316</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -977,33 +1049,39 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.909351657525605</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.9652171847799025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.981994411985397</v>
+        <v>5.755265140573215</v>
       </c>
       <c r="C14">
-        <v>1.59245311887048</v>
+        <v>1.503973052460594</v>
       </c>
       <c r="D14">
-        <v>0.06052754737639532</v>
+        <v>0.1174172976122776</v>
       </c>
       <c r="E14">
-        <v>2.525749484437696</v>
+        <v>0.2301638033420659</v>
       </c>
       <c r="F14">
-        <v>0.7327606687664314</v>
+        <v>0.3808179792561006</v>
       </c>
       <c r="G14">
-        <v>0.0007440482843727255</v>
+        <v>0.0007663001972296885</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1846392144917246</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1024,33 +1102,39 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.872832176201655</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.7987277934807224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.915175981730897</v>
+        <v>5.691578459125481</v>
       </c>
       <c r="C15">
-        <v>1.575468599796352</v>
+        <v>1.487826927160938</v>
       </c>
       <c r="D15">
-        <v>0.05991224352278834</v>
+        <v>0.1188008590649616</v>
       </c>
       <c r="E15">
-        <v>2.493204529720103</v>
+        <v>0.1914194512649949</v>
       </c>
       <c r="F15">
-        <v>0.7240852042093451</v>
+        <v>0.3650979174684252</v>
       </c>
       <c r="G15">
-        <v>0.000744721346776587</v>
+        <v>0.0007668825418026875</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1963397314335538</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1071,33 +1155,39 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.850726843422734</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.7571044426608182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.53363491942747</v>
+        <v>5.332616371041183</v>
       </c>
       <c r="C16">
-        <v>1.478438606471798</v>
+        <v>1.397503797650472</v>
       </c>
       <c r="D16">
-        <v>0.05640022152631019</v>
+        <v>0.1113863736027554</v>
       </c>
       <c r="E16">
-        <v>2.309269822762175</v>
+        <v>0.1855241603354401</v>
       </c>
       <c r="F16">
-        <v>0.6755230432628423</v>
+        <v>0.348405618606094</v>
       </c>
       <c r="G16">
-        <v>0.0007485903130532989</v>
+        <v>0.0007696237749067469</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1805299393434723</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,33 +1208,39 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.727902952230721</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.7351797900137882</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.300687919728546</v>
+        <v>5.114846092795062</v>
       </c>
       <c r="C17">
-        <v>1.419157990854444</v>
+        <v>1.34299663638609</v>
       </c>
       <c r="D17">
-        <v>0.05425707574409699</v>
+        <v>0.1012502819411623</v>
       </c>
       <c r="E17">
-        <v>2.198537140315693</v>
+        <v>0.2707629422036817</v>
       </c>
       <c r="F17">
-        <v>0.6467009445061791</v>
+        <v>0.3661427857299984</v>
       </c>
       <c r="G17">
-        <v>0.0007509758215070161</v>
+        <v>0.0007710741012809788</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1415569698178274</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1165,33 +1261,39 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.655792619796131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8051021464712989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.167073336104238</v>
+        <v>4.993229298844028</v>
       </c>
       <c r="C18">
-        <v>1.385141676507658</v>
+        <v>1.313122388089766</v>
       </c>
       <c r="D18">
-        <v>0.05302813720694388</v>
+        <v>0.08825424890179079</v>
       </c>
       <c r="E18">
-        <v>2.135550865997416</v>
+        <v>0.507820305034727</v>
       </c>
       <c r="F18">
-        <v>0.6304566638523852</v>
+        <v>0.4174405593381607</v>
       </c>
       <c r="G18">
-        <v>0.0007523528468301177</v>
+        <v>0.0007714689330717939</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08949962893581898</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1212,33 +1314,39 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.615430967274676</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.9717356954752177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.121893730647344</v>
+        <v>4.958201502044346</v>
       </c>
       <c r="C19">
-        <v>1.373637281602043</v>
+        <v>1.305544411379628</v>
       </c>
       <c r="D19">
-        <v>0.05261264338035687</v>
+        <v>0.07475746847306652</v>
       </c>
       <c r="E19">
-        <v>2.114339516159717</v>
+        <v>0.9487852546249371</v>
       </c>
       <c r="F19">
-        <v>0.625011828509713</v>
+        <v>0.4959537561542007</v>
       </c>
       <c r="G19">
-        <v>0.0007528199807482719</v>
+        <v>0.0007708350588827942</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.04746509393830678</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1259,33 +1367,39 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.601949714868709</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.221831788821845</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.325446324771633</v>
+        <v>5.167646821178948</v>
       </c>
       <c r="C20">
-        <v>1.425459995105768</v>
+        <v>1.360783682333022</v>
       </c>
       <c r="D20">
-        <v>0.05448482054296733</v>
+        <v>0.05985251397380154</v>
       </c>
       <c r="E20">
-        <v>2.210250434711142</v>
+        <v>1.94301583013754</v>
       </c>
       <c r="F20">
-        <v>0.6497341005681392</v>
+        <v>0.6489316158776575</v>
       </c>
       <c r="G20">
-        <v>0.0007507213798648098</v>
+        <v>0.0007673601688563603</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.03206080076343154</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1306,33 +1420,39 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.663351909176043</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.698825059822354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.014061404798156</v>
+        <v>5.824891240687919</v>
       </c>
       <c r="C21">
-        <v>1.600603352844928</v>
+        <v>1.526695408933563</v>
       </c>
       <c r="D21">
-        <v>0.06082286766925193</v>
+        <v>0.06495623914548787</v>
       </c>
       <c r="E21">
-        <v>2.541403832657366</v>
+        <v>2.284931447495723</v>
       </c>
       <c r="F21">
-        <v>0.7369420707503735</v>
+        <v>0.7336566318731172</v>
       </c>
       <c r="G21">
-        <v>0.0007437257231604488</v>
+        <v>0.0007617674673845998</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.04156102761643643</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1353,33 +1473,39 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.883503363258569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.910141713126109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.468291637405798</v>
+        <v>6.255741797374924</v>
       </c>
       <c r="C22">
-        <v>1.715993697539091</v>
+        <v>1.63523552578647</v>
       </c>
       <c r="D22">
-        <v>0.06500821190251571</v>
+        <v>0.06904108856582525</v>
       </c>
       <c r="E22">
-        <v>2.76566328394901</v>
+        <v>2.457225564858902</v>
       </c>
       <c r="F22">
-        <v>0.7974113547351038</v>
+        <v>0.7843281519507741</v>
       </c>
       <c r="G22">
-        <v>0.0007391860033399157</v>
+        <v>0.0007582614163035897</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.04778828180383243</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1400,33 +1526,39 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.038988414660309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>2.032521435591946</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.225432000269564</v>
+        <v>6.025565855300385</v>
       </c>
       <c r="C23">
-        <v>1.654312258275127</v>
+        <v>1.577258240946151</v>
       </c>
       <c r="D23">
-        <v>0.06276995956053355</v>
+        <v>0.06686125024229739</v>
       </c>
       <c r="E23">
-        <v>2.645172295040652</v>
+        <v>2.365104391276873</v>
       </c>
       <c r="F23">
-        <v>0.7647936384224749</v>
+        <v>0.7570800699476763</v>
       </c>
       <c r="G23">
-        <v>0.0007416065873020089</v>
+        <v>0.0007601285470578301</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.044418514341384</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1447,33 +1579,39 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.954853820018542</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.966555090552873</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.314252094415224</v>
+        <v>5.158283565335182</v>
       </c>
       <c r="C24">
-        <v>1.422610659040799</v>
+        <v>1.358625221563329</v>
       </c>
       <c r="D24">
-        <v>0.0543818473026505</v>
+        <v>0.05859633394408092</v>
       </c>
       <c r="E24">
-        <v>2.204952766859662</v>
+        <v>2.019564386694611</v>
       </c>
       <c r="F24">
-        <v>0.6483618008775949</v>
+        <v>0.6581342219427029</v>
       </c>
       <c r="G24">
-        <v>0.0007508363954645825</v>
+        <v>0.0007672945475666937</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.03261689304707849</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1494,33 +1632,39 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.659930959915187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.730291390855911</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.34516289540062</v>
+        <v>4.22981599590139</v>
       </c>
       <c r="C25">
-        <v>1.175662098009525</v>
+        <v>1.124258729256383</v>
       </c>
       <c r="D25">
-        <v>0.04547296341502971</v>
+        <v>0.04965016772483466</v>
       </c>
       <c r="E25">
-        <v>1.75639716116838</v>
+        <v>1.652446786278972</v>
       </c>
       <c r="F25">
-        <v>0.5352944310287526</v>
+        <v>0.5591498468974905</v>
       </c>
       <c r="G25">
-        <v>0.0007609863970889205</v>
+        <v>0.0007752510367597034</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02161977954302663</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.383668787425194</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.500222310500533</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_1/res_line/pl_mw.xlsx
@@ -427,52 +427,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.549822446526662</v>
+        <v>0.9289443055295123</v>
       </c>
       <c r="C2">
-        <v>0.9524166978794426</v>
+        <v>0.1240480839068354</v>
       </c>
       <c r="D2">
-        <v>0.04302524482999814</v>
+        <v>0.1003468905589671</v>
       </c>
       <c r="E2">
-        <v>1.385468820577586</v>
+        <v>0.05793677119616447</v>
       </c>
       <c r="F2">
-        <v>0.491692355984604</v>
+        <v>0.6552279394044476</v>
       </c>
       <c r="G2">
-        <v>0.0007813283429335224</v>
+        <v>0.4064144202357198</v>
       </c>
       <c r="H2">
-        <v>0.01471837629227213</v>
+        <v>0.0105345705661435</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3717888684419606</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4085491937333359</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.06993996346444931</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8440184326776432</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1569336065398872</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.1969889288088424</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.348258430430576</v>
+        <v>1.58595951074291</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -480,52 +480,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.090181132606517</v>
+        <v>0.8091683502723868</v>
       </c>
       <c r="C3">
-        <v>0.8361708929421923</v>
+        <v>0.1195705706911383</v>
       </c>
       <c r="D3">
-        <v>0.03850740119924012</v>
+        <v>0.09110255484533525</v>
       </c>
       <c r="E3">
-        <v>1.20593730521523</v>
+        <v>0.05576090381001286</v>
       </c>
       <c r="F3">
-        <v>0.4487998918271998</v>
+        <v>0.6495402587122499</v>
       </c>
       <c r="G3">
-        <v>0.0007855944593566255</v>
+        <v>0.4062496755094429</v>
       </c>
       <c r="H3">
-        <v>0.01065295108185764</v>
+        <v>0.01310482271827933</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.37636148729392</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4163081983820511</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.06876518692815914</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7396121241647222</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1417098303945892</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.1722448829971981</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.254394858798349</v>
+        <v>1.594893490683702</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -533,52 +533,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.80823540361655</v>
+        <v>0.7355360010245704</v>
       </c>
       <c r="C4">
-        <v>0.7648317453560765</v>
+        <v>0.1168116936846175</v>
       </c>
       <c r="D4">
-        <v>0.035718452606325</v>
+        <v>0.08544671003769366</v>
       </c>
       <c r="E4">
-        <v>1.096191428738507</v>
+        <v>0.054423767355674</v>
       </c>
       <c r="F4">
-        <v>0.4236863833421509</v>
+        <v>0.6467781179538008</v>
       </c>
       <c r="G4">
-        <v>0.0007882899183532002</v>
+        <v>0.4067438899348801</v>
       </c>
       <c r="H4">
-        <v>0.008417344124682535</v>
+        <v>0.01488625341738886</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3795492927221886</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4215606981504116</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.06802055683588115</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6753653349539803</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1323544374160903</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.1570432499093712</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.200729231189683</v>
+        <v>1.602429677867207</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -586,52 +586,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.69336830127429</v>
+        <v>0.7055035797155256</v>
       </c>
       <c r="C5">
-        <v>0.735760656937515</v>
+        <v>0.1156848139978806</v>
       </c>
       <c r="D5">
-        <v>0.03457804879749204</v>
+        <v>0.08314659861453322</v>
       </c>
       <c r="E5">
-        <v>1.051563660363598</v>
+        <v>0.05387842346913985</v>
       </c>
       <c r="F5">
-        <v>0.4137361185402426</v>
+        <v>0.6458312067228107</v>
       </c>
       <c r="G5">
-        <v>0.0007894079163685648</v>
+        <v>0.4070904307959609</v>
       </c>
       <c r="H5">
-        <v>0.00756604869468297</v>
+        <v>0.01566157481495078</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3809420030973953</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4238212115797708</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.06771110011165327</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6491453208735578</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1285393477013912</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.1508453764672453</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.179783104796343</v>
+        <v>1.606002623996162</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -639,52 +639,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.674295251989975</v>
+        <v>0.7005149938843545</v>
       </c>
       <c r="C6">
-        <v>0.7309331893764011</v>
+        <v>0.1154975334485329</v>
       </c>
       <c r="D6">
-        <v>0.03438844799774898</v>
+        <v>0.08276493914366512</v>
       </c>
       <c r="E6">
-        <v>1.044158176106748</v>
+        <v>0.05378783774631302</v>
       </c>
       <c r="F6">
-        <v>0.412100347906204</v>
+        <v>0.6456846246010315</v>
       </c>
       <c r="G6">
-        <v>0.0007895947543308083</v>
+        <v>0.407156609592306</v>
       </c>
       <c r="H6">
-        <v>0.007428135307259609</v>
+        <v>0.01579324834461671</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3811788623658003</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4242037419721889</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.0676593474811531</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6447890589436298</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1279056727164019</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.1498160127740604</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.176358662451975</v>
+        <v>1.606625828437259</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -692,52 +692,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.806686204463119</v>
+        <v>0.7351310864522134</v>
       </c>
       <c r="C7">
-        <v>0.7644396929856327</v>
+        <v>0.1167965070117774</v>
       </c>
       <c r="D7">
-        <v>0.03570308858955684</v>
+        <v>0.08541567143923601</v>
       </c>
       <c r="E7">
-        <v>1.095589216017885</v>
+        <v>0.0544164146885624</v>
       </c>
       <c r="F7">
-        <v>0.4235510724214251</v>
+        <v>0.6467646304545625</v>
       </c>
       <c r="G7">
-        <v>0.0007883049162942445</v>
+        <v>0.4067479817346182</v>
       </c>
       <c r="H7">
-        <v>0.008405628856401559</v>
+        <v>0.01489651202741951</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3795676986245056</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4215907015943472</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.06801640794194164</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6750118847349711</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1323029975748113</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.1569596768598309</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.200443102606471</v>
+        <v>1.602475849573068</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -745,52 +745,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.391254924469365</v>
+        <v>0.8876614983778381</v>
       </c>
       <c r="C8">
-        <v>0.9123219957465096</v>
+        <v>0.1225061266330556</v>
       </c>
       <c r="D8">
-        <v>0.04147051924034884</v>
+        <v>0.09715500320497483</v>
       </c>
       <c r="E8">
-        <v>1.323447908269785</v>
+        <v>0.05718666971419673</v>
       </c>
       <c r="F8">
-        <v>0.4766345846700517</v>
+        <v>0.653112278552527</v>
       </c>
       <c r="G8">
-        <v>0.0007827837976060438</v>
+        <v>0.4062312481422765</v>
       </c>
       <c r="H8">
-        <v>0.01325895997119919</v>
+        <v>0.01137753736588183</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3732854016064024</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4111214430545047</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.06953964609702901</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8080461713245199</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1516856613506974</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.1884584197584225</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.315024847932506</v>
+        <v>1.588605882590798</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -798,52 +798,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.541855432840009</v>
+        <v>1.186278729502874</v>
       </c>
       <c r="C9">
-        <v>1.203059717042152</v>
+        <v>0.1336355786287982</v>
       </c>
       <c r="D9">
-        <v>0.05266891834645548</v>
+        <v>0.1203559904340779</v>
       </c>
       <c r="E9">
-        <v>1.775499123247954</v>
+        <v>0.06261789843768284</v>
       </c>
       <c r="F9">
-        <v>0.5915717186664367</v>
+        <v>0.671584334852696</v>
       </c>
       <c r="G9">
-        <v>0.0007725383866591791</v>
+        <v>0.4101561023112481</v>
       </c>
       <c r="H9">
-        <v>0.02511965229816204</v>
+        <v>0.006170503349313128</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3640738514246351</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3945946441268013</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.07234885290549009</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.067990069465964</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1896668384012017</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.2502046313984145</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.574766914792775</v>
+        <v>1.5783239485542</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -851,52 +851,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.391248357049051</v>
+        <v>1.404944051774152</v>
       </c>
       <c r="C10">
-        <v>1.417124179127768</v>
+        <v>0.143002056714181</v>
       </c>
       <c r="D10">
-        <v>0.06233088617828031</v>
+        <v>0.1356719498502201</v>
       </c>
       <c r="E10">
-        <v>2.008907367560269</v>
+        <v>0.06492072489224832</v>
       </c>
       <c r="F10">
-        <v>0.6709401747436914</v>
+        <v>0.6813589353884097</v>
       </c>
       <c r="G10">
-        <v>0.0007655321292788259</v>
+        <v>0.4111356288380463</v>
       </c>
       <c r="H10">
-        <v>0.03478135184302689</v>
+        <v>0.003803661224665689</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3566691936984938</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3812908559701924</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.07349487678082589</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.261791044983283</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.210908464117054</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.2922573019590615</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.748163966146109</v>
+        <v>1.56536085521131</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -904,52 +904,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.76499717043157</v>
+        <v>1.497779846633648</v>
       </c>
       <c r="C11">
-        <v>1.50929667681703</v>
+        <v>0.1589001451808656</v>
       </c>
       <c r="D11">
-        <v>0.0808042537866811</v>
+        <v>0.1266589009909325</v>
       </c>
       <c r="E11">
-        <v>1.312911678412661</v>
+        <v>0.05323565664686924</v>
       </c>
       <c r="F11">
-        <v>0.5962842853966066</v>
+        <v>0.6207841172314446</v>
       </c>
       <c r="G11">
-        <v>0.0007639813324701934</v>
+        <v>0.368461674283175</v>
       </c>
       <c r="H11">
-        <v>0.04995399018534741</v>
+        <v>0.02227541716960602</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3312861477888021</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3446355164082426</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.07164238703744896</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.377933723834929</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1664239258434819</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.2822853503206133</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.467075230471067</v>
+        <v>1.421924526120392</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -957,52 +957,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.90162746081802</v>
+        <v>1.529784398775945</v>
       </c>
       <c r="C12">
-        <v>1.542371870960437</v>
+        <v>0.1717830330150178</v>
       </c>
       <c r="D12">
-        <v>0.09589711057294181</v>
+        <v>0.1160746285162304</v>
       </c>
       <c r="E12">
-        <v>0.8094424028786165</v>
+        <v>0.045577085234628</v>
       </c>
       <c r="F12">
-        <v>0.5203446335200326</v>
+        <v>0.5694316001702049</v>
       </c>
       <c r="G12">
-        <v>0.0007639308874512763</v>
+        <v>0.3337254206762168</v>
       </c>
       <c r="H12">
-        <v>0.08535229800060762</v>
+        <v>0.06108548462080421</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3119994254107326</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3183367857753154</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07627222369437447</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.436394647228184</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1297357275319726</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.2651220162973011</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.213171670768276</v>
+        <v>1.307959706546896</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1010,52 +1010,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.862237553768864</v>
+        <v>1.516502660103299</v>
       </c>
       <c r="C13">
-        <v>1.531453759032843</v>
+        <v>0.1828889822078992</v>
       </c>
       <c r="D13">
-        <v>0.1090414620708628</v>
+        <v>0.1037276163227858</v>
       </c>
       <c r="E13">
-        <v>0.4257153639687132</v>
+        <v>0.0405450671582539</v>
       </c>
       <c r="F13">
-        <v>0.4390296916858034</v>
+        <v>0.521984216618641</v>
       </c>
       <c r="G13">
-        <v>0.000765031776876697</v>
+        <v>0.3028470754472465</v>
       </c>
       <c r="H13">
-        <v>0.1376435619250316</v>
+        <v>0.1171888843771995</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2961249158120864</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2982177112240496</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08592479835841971</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.453244775894319</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.09708282946509428</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.2415614828710737</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.9652171847799025</v>
+        <v>1.209227442779039</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1063,52 +1063,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.755265140573215</v>
+        <v>1.486706484954937</v>
       </c>
       <c r="C14">
-        <v>1.503973052460594</v>
+        <v>0.189919808076894</v>
       </c>
       <c r="D14">
-        <v>0.1174172976122776</v>
+        <v>0.09440723479197288</v>
       </c>
       <c r="E14">
-        <v>0.2301638033420659</v>
+        <v>0.03857406819178266</v>
       </c>
       <c r="F14">
-        <v>0.3808179792561006</v>
+        <v>0.4910323882826901</v>
       </c>
       <c r="G14">
-        <v>0.0007663001972296885</v>
+        <v>0.2833254404576167</v>
       </c>
       <c r="H14">
-        <v>0.1846392144917246</v>
+        <v>0.1668741320582114</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.28670020882047</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.287229450635742</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09565983432591452</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.446141240848391</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07696534977241143</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.2223633229643731</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.7987277934807224</v>
+        <v>1.148043706478262</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1116,52 +1116,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.691578459125481</v>
+        <v>1.469815012220721</v>
       </c>
       <c r="C15">
-        <v>1.487826927160938</v>
+        <v>0.1910274422396583</v>
       </c>
       <c r="D15">
-        <v>0.1188008590649616</v>
+        <v>0.0917495434270208</v>
       </c>
       <c r="E15">
-        <v>0.1914194512649949</v>
+        <v>0.03830184142995552</v>
       </c>
       <c r="F15">
-        <v>0.3650979174684252</v>
+        <v>0.4841159478049022</v>
       </c>
       <c r="G15">
-        <v>0.0007668825418026875</v>
+        <v>0.2792084150631169</v>
       </c>
       <c r="H15">
-        <v>0.1963397314335538</v>
+        <v>0.1795523298132196</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2850572212814484</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2856215328980127</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09821578941894415</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.435288677851389</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07227937188884681</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.21635145427447</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.7571044426608182</v>
+        <v>1.135839638572378</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1169,52 +1169,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.332616371041183</v>
+        <v>1.378222633087347</v>
       </c>
       <c r="C16">
-        <v>1.397503797650472</v>
+        <v>0.1841828556227512</v>
       </c>
       <c r="D16">
-        <v>0.1113863736027554</v>
+        <v>0.08796911160656151</v>
       </c>
       <c r="E16">
-        <v>0.1855241603354401</v>
+        <v>0.03838879046802376</v>
       </c>
       <c r="F16">
-        <v>0.348405618606094</v>
+        <v>0.4893351029999522</v>
       </c>
       <c r="G16">
-        <v>0.0007696237749067469</v>
+        <v>0.284651775987804</v>
       </c>
       <c r="H16">
-        <v>0.1805299393434723</v>
+        <v>0.1678013882603722</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2911191722093207</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2948472105102056</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09527069898296148</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.347278605534882</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.07068858912075981</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.2036930021845542</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.7351797900137882</v>
+        <v>1.159878385111568</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1222,52 +1222,52 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.114846092795062</v>
+        <v>1.323971031376487</v>
       </c>
       <c r="C17">
-        <v>1.34299663638609</v>
+        <v>0.1751982717589584</v>
       </c>
       <c r="D17">
-        <v>0.1012502819411623</v>
+        <v>0.08994591643442362</v>
       </c>
       <c r="E17">
-        <v>0.2707629422036817</v>
+        <v>0.03926012172975057</v>
       </c>
       <c r="F17">
-        <v>0.3661427857299984</v>
+        <v>0.5097141651129604</v>
       </c>
       <c r="G17">
-        <v>0.0007710741012809788</v>
+        <v>0.2991867139642252</v>
       </c>
       <c r="H17">
-        <v>0.1415569698178274</v>
+        <v>0.1306212097548354</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3008144532461685</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3077495320641361</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08738346137989339</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.283782411073616</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07951191565014781</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.2040590513679419</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.8051021464712989</v>
+        <v>1.210878380495004</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1275,52 +1275,52 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.993229298844028</v>
+        <v>1.295460490435772</v>
       </c>
       <c r="C18">
-        <v>1.313122388089766</v>
+        <v>0.1639642274515438</v>
       </c>
       <c r="D18">
-        <v>0.08825424890179079</v>
+        <v>0.09728733459439809</v>
       </c>
       <c r="E18">
-        <v>0.507820305034727</v>
+        <v>0.04223662490587277</v>
       </c>
       <c r="F18">
-        <v>0.4174405593381607</v>
+        <v>0.546516029793267</v>
       </c>
       <c r="G18">
-        <v>0.0007714689330717939</v>
+        <v>0.3240077772071785</v>
       </c>
       <c r="H18">
-        <v>0.08949962893581898</v>
+        <v>0.07796525134781263</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3150622065090332</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3262245202075995</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07739741678809509</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.234514015898384</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1010769634115505</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.2158496284744942</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.9717356954752177</v>
+        <v>1.293275492600571</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1328,52 +1328,52 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.958201502044346</v>
+        <v>1.289600522751755</v>
       </c>
       <c r="C19">
-        <v>1.305544411379628</v>
+        <v>0.1525583321427888</v>
       </c>
       <c r="D19">
-        <v>0.07475746847306652</v>
+        <v>0.1087691602678973</v>
       </c>
       <c r="E19">
-        <v>0.9487852546249371</v>
+        <v>0.04867903242943683</v>
       </c>
       <c r="F19">
-        <v>0.4959537561542007</v>
+        <v>0.5958188007588561</v>
       </c>
       <c r="G19">
-        <v>0.0007708350588827942</v>
+        <v>0.3567858525664889</v>
       </c>
       <c r="H19">
-        <v>0.04746509393830678</v>
+        <v>0.03232158775536931</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3325595287782903</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3493969256606704</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.07088113030609122</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.200766354187721</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1356324304073269</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.2363979958660067</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.221831788821845</v>
+        <v>1.399398134640776</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1381,52 +1381,52 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.167646821178948</v>
+        <v>1.347486604819039</v>
       </c>
       <c r="C20">
-        <v>1.360783682333022</v>
+        <v>0.1405877649033016</v>
       </c>
       <c r="D20">
-        <v>0.05985251397380154</v>
+        <v>0.1315643961337685</v>
       </c>
       <c r="E20">
-        <v>1.94301583013754</v>
+        <v>0.06424179811240727</v>
       </c>
       <c r="F20">
-        <v>0.6489316158776575</v>
+        <v>0.6781768021353543</v>
       </c>
       <c r="G20">
-        <v>0.0007673601688563603</v>
+        <v>0.4104165708036049</v>
       </c>
       <c r="H20">
-        <v>0.03206080076343154</v>
+        <v>0.004336802148999119</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3583549857117561</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3844317168178577</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.07315588391134131</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.211035702947242</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2050505932688367</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.2810746529481136</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.698825059822354</v>
+        <v>1.567246390539481</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1434,52 +1434,52 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.824891240687919</v>
+        <v>1.51654906832033</v>
       </c>
       <c r="C21">
-        <v>1.526695408933563</v>
+        <v>0.1458981251321489</v>
       </c>
       <c r="D21">
-        <v>0.06495623914548787</v>
+        <v>0.14625829699078</v>
       </c>
       <c r="E21">
-        <v>2.284931447495723</v>
+        <v>0.06864428759416263</v>
       </c>
       <c r="F21">
-        <v>0.7336566318731172</v>
+        <v>0.6991203348626911</v>
       </c>
       <c r="G21">
-        <v>0.0007617674673845998</v>
+        <v>0.4203983456123481</v>
       </c>
       <c r="H21">
-        <v>0.04156102761643643</v>
+        <v>0.002456521735806017</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3574787232880681</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3809740134585375</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.07528505447553346</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.354933313548457</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2317311616587716</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.3185852470990511</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.910141713126109</v>
+        <v>1.586923251915081</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1487,52 +1487,52 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.255741797374924</v>
+        <v>1.626773404086947</v>
       </c>
       <c r="C22">
-        <v>1.63523552578647</v>
+        <v>0.1499837961157624</v>
       </c>
       <c r="D22">
-        <v>0.06904108856582525</v>
+        <v>0.1549464661107862</v>
       </c>
       <c r="E22">
-        <v>2.457225564858902</v>
+        <v>0.07066104410444218</v>
       </c>
       <c r="F22">
-        <v>0.7843281519507741</v>
+        <v>0.7096689332071051</v>
       </c>
       <c r="G22">
-        <v>0.0007582614163035897</v>
+        <v>0.4249629266190382</v>
       </c>
       <c r="H22">
-        <v>0.04778828180383243</v>
+        <v>0.001619715623267903</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3559585506913052</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3773177868359774</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.0762380551879982</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.450598945701216</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2457832309891899</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.3414228022120724</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.032521435591946</v>
+        <v>1.593638156915233</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1540,52 +1540,52 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.025565855300385</v>
+        <v>1.567931450539987</v>
       </c>
       <c r="C23">
-        <v>1.577258240946151</v>
+        <v>0.1478030357249835</v>
       </c>
       <c r="D23">
-        <v>0.06686125024229739</v>
+        <v>0.1503059819846726</v>
       </c>
       <c r="E23">
-        <v>2.365104391276873</v>
+        <v>0.06958405808111934</v>
       </c>
       <c r="F23">
-        <v>0.7570800699476763</v>
+        <v>0.703960028285266</v>
       </c>
       <c r="G23">
-        <v>0.0007601285470578301</v>
+        <v>0.4224601445522254</v>
       </c>
       <c r="H23">
-        <v>0.044418514341384</v>
+        <v>0.002043096437844172</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3567313228841016</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3792188046752436</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.07573068566969798</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.399534412877955</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2382808605995308</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.3292303447601839</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.966555090552873</v>
+        <v>1.589832941670892</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1593,52 +1593,52 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.158283565335182</v>
+        <v>1.345327154006554</v>
       </c>
       <c r="C24">
-        <v>1.358625221563329</v>
+        <v>0.1395453962689075</v>
       </c>
       <c r="D24">
-        <v>0.05859633394408092</v>
+        <v>0.1328031477188034</v>
       </c>
       <c r="E24">
-        <v>2.019564386694611</v>
+        <v>0.06551709507141013</v>
       </c>
       <c r="F24">
-        <v>0.6581342219427029</v>
+        <v>0.6840320001039402</v>
       </c>
       <c r="G24">
-        <v>0.0007672945475666937</v>
+        <v>0.4144064024604788</v>
       </c>
       <c r="H24">
-        <v>0.03261689304707849</v>
+        <v>0.00414340838862115</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3604892902368348</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3875029978015405</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.07378012069738293</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.206234049724742</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2099161748919798</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.2831248107471183</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.730291390855911</v>
+        <v>1.580170472827717</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1646,52 +1646,52 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.22981599590139</v>
+        <v>1.10551405180405</v>
       </c>
       <c r="C25">
-        <v>1.124258729256383</v>
+        <v>0.1306304491426005</v>
       </c>
       <c r="D25">
-        <v>0.04965016772483466</v>
+        <v>0.1140571575169105</v>
       </c>
       <c r="E25">
-        <v>1.652446786278972</v>
+        <v>0.06114756325373527</v>
       </c>
       <c r="F25">
-        <v>0.5591498468974905</v>
+        <v>0.665908480843612</v>
       </c>
       <c r="G25">
-        <v>0.0007752510367597034</v>
+        <v>0.4085345285714155</v>
       </c>
       <c r="H25">
-        <v>0.02161977954302663</v>
+        <v>0.007386210595990428</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3662198469366515</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3986185284471873</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.07160689203167525</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.9977399379000929</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1793896091508316</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.2334958636005027</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.500222310500533</v>
+        <v>1.579200608616318</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9289443055295123</v>
+        <v>0.9220321736092671</v>
       </c>
       <c r="C2">
-        <v>0.1240480839068354</v>
+        <v>0.1131283906315517</v>
       </c>
       <c r="D2">
-        <v>0.1003468905589671</v>
+        <v>0.102639564962459</v>
       </c>
       <c r="E2">
-        <v>0.05793677119616447</v>
+        <v>0.05646706765386256</v>
       </c>
       <c r="F2">
-        <v>0.6552279394044476</v>
+        <v>0.6158165259392732</v>
       </c>
       <c r="G2">
-        <v>0.4064144202357198</v>
+        <v>0.3624038192401784</v>
       </c>
       <c r="H2">
-        <v>0.0105345705661435</v>
+        <v>0.008712951658984655</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3717888684419606</v>
+        <v>0.368213723574371</v>
       </c>
       <c r="K2">
-        <v>0.4085491937333359</v>
+        <v>0.3679624338079002</v>
       </c>
       <c r="L2">
-        <v>0.06993996346444931</v>
+        <v>0.165161384909231</v>
       </c>
       <c r="M2">
-        <v>0.8440184326776432</v>
+        <v>0.1138480467183101</v>
       </c>
       <c r="N2">
-        <v>0.1569336065398872</v>
+        <v>0.06679809599360365</v>
       </c>
       <c r="O2">
-        <v>0.1969889288088424</v>
+        <v>0.8616345497711109</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1708835464817895</v>
       </c>
       <c r="Q2">
-        <v>1.58595951074291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1982301117901741</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.471242028165292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8091683502723868</v>
+        <v>0.8053029638966223</v>
       </c>
       <c r="C3">
-        <v>0.1195705706911383</v>
+        <v>0.1056646572333975</v>
       </c>
       <c r="D3">
-        <v>0.09110255484533525</v>
+        <v>0.09323559776424872</v>
       </c>
       <c r="E3">
-        <v>0.05576090381001286</v>
+        <v>0.05454145123380094</v>
       </c>
       <c r="F3">
-        <v>0.6495402587122499</v>
+        <v>0.6122242922310761</v>
       </c>
       <c r="G3">
-        <v>0.4062496755094429</v>
+        <v>0.3653467338424932</v>
       </c>
       <c r="H3">
-        <v>0.01310482271827933</v>
+        <v>0.01088463123219945</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.37636148729392</v>
+        <v>0.3703764465488817</v>
       </c>
       <c r="K3">
-        <v>0.4163081983820511</v>
+        <v>0.3761916161739833</v>
       </c>
       <c r="L3">
-        <v>0.06876518692815914</v>
+        <v>0.1708082052755984</v>
       </c>
       <c r="M3">
-        <v>0.7396121241647222</v>
+        <v>0.115943826626026</v>
       </c>
       <c r="N3">
-        <v>0.1417098303945892</v>
+        <v>0.06576632119098269</v>
       </c>
       <c r="O3">
-        <v>0.1722448829971981</v>
+        <v>0.7539547135112343</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1547081389190552</v>
       </c>
       <c r="Q3">
-        <v>1.594893490683702</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1732234625510536</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.484309361142522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7355360010245704</v>
+        <v>0.7334368443192716</v>
       </c>
       <c r="C4">
-        <v>0.1168116936846175</v>
+        <v>0.1011112844484785</v>
       </c>
       <c r="D4">
-        <v>0.08544671003769366</v>
+        <v>0.08748860257144031</v>
       </c>
       <c r="E4">
-        <v>0.054423767355674</v>
+        <v>0.05335610926192658</v>
       </c>
       <c r="F4">
-        <v>0.6467781179538008</v>
+        <v>0.6106270573662513</v>
       </c>
       <c r="G4">
-        <v>0.4067438899348801</v>
+        <v>0.367743292672138</v>
       </c>
       <c r="H4">
-        <v>0.01488625341738886</v>
+        <v>0.01239258961230415</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3795492927221886</v>
+        <v>0.3719039932314203</v>
       </c>
       <c r="K4">
-        <v>0.4215606981504116</v>
+        <v>0.3816307813578632</v>
       </c>
       <c r="L4">
-        <v>0.06802055683588115</v>
+        <v>0.1744878738029065</v>
       </c>
       <c r="M4">
-        <v>0.6753653349539803</v>
+        <v>0.1178180986149568</v>
       </c>
       <c r="N4">
-        <v>0.1323544374160903</v>
+        <v>0.06511041852314747</v>
       </c>
       <c r="O4">
-        <v>0.1570432499093712</v>
+        <v>0.6877354449060959</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.144799154384387</v>
       </c>
       <c r="Q4">
-        <v>1.602429677867207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1578566756171718</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.494027789015433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7055035797155256</v>
+        <v>0.7040989222577139</v>
       </c>
       <c r="C5">
-        <v>0.1156848139978806</v>
+        <v>0.09926288872939892</v>
       </c>
       <c r="D5">
-        <v>0.08314659861453322</v>
+        <v>0.08515311885125953</v>
       </c>
       <c r="E5">
-        <v>0.05387842346913985</v>
+        <v>0.0528721823299918</v>
       </c>
       <c r="F5">
-        <v>0.6458312067228107</v>
+        <v>0.6101248842526701</v>
       </c>
       <c r="G5">
-        <v>0.4070904307959609</v>
+        <v>0.3688632588962832</v>
       </c>
       <c r="H5">
-        <v>0.01566157481495078</v>
+        <v>0.01304948622397992</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3809420030973953</v>
+        <v>0.3725757804900027</v>
       </c>
       <c r="K5">
-        <v>0.4238212115797708</v>
+        <v>0.3839422363723504</v>
       </c>
       <c r="L5">
-        <v>0.06771110011165327</v>
+        <v>0.1760408158641411</v>
       </c>
       <c r="M5">
-        <v>0.6491453208735578</v>
+        <v>0.1187281647094069</v>
       </c>
       <c r="N5">
-        <v>0.1285393477013912</v>
+        <v>0.06483736703418463</v>
       </c>
       <c r="O5">
-        <v>0.1508453764672453</v>
+        <v>0.6607217607454317</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1407662963199243</v>
       </c>
       <c r="Q5">
-        <v>1.606002623996162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1515906823140618</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.498402521258399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7005149938843545</v>
+        <v>0.6992241612430803</v>
       </c>
       <c r="C6">
-        <v>0.1154975334485329</v>
+        <v>0.0989563884734963</v>
       </c>
       <c r="D6">
-        <v>0.08276493914366512</v>
+        <v>0.08476569419487845</v>
       </c>
       <c r="E6">
-        <v>0.05378783774631302</v>
+        <v>0.05279176901362881</v>
       </c>
       <c r="F6">
-        <v>0.6456846246010315</v>
+        <v>0.6100503582842549</v>
       </c>
       <c r="G6">
-        <v>0.407156609592306</v>
+        <v>0.369057745816157</v>
       </c>
       <c r="H6">
-        <v>0.01579324834461671</v>
+        <v>0.01316108068857957</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3811788623658003</v>
+        <v>0.3726902821636529</v>
       </c>
       <c r="K6">
-        <v>0.4242037419721889</v>
+        <v>0.3843317230181409</v>
       </c>
       <c r="L6">
-        <v>0.0676593474811531</v>
+        <v>0.1763019093557787</v>
       </c>
       <c r="M6">
-        <v>0.6447890589436298</v>
+        <v>0.1188880750529151</v>
       </c>
       <c r="N6">
-        <v>0.1279056727164019</v>
+        <v>0.06479167490298332</v>
       </c>
       <c r="O6">
-        <v>0.1498160127740604</v>
+        <v>0.6562343427144128</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1400969365987592</v>
       </c>
       <c r="Q6">
-        <v>1.606625828437259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1505499626889737</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.499153631923917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7351310864522134</v>
+        <v>0.7331496017206121</v>
       </c>
       <c r="C7">
-        <v>0.1167965070117774</v>
+        <v>0.1009801596791604</v>
       </c>
       <c r="D7">
-        <v>0.08541567143923601</v>
+        <v>0.08759615650107122</v>
       </c>
       <c r="E7">
-        <v>0.0544164146885624</v>
+        <v>0.05336233374998045</v>
       </c>
       <c r="F7">
-        <v>0.6467646304545625</v>
+        <v>0.6098971524131755</v>
       </c>
       <c r="G7">
-        <v>0.4067479817346182</v>
+        <v>0.3697529197943581</v>
       </c>
       <c r="H7">
-        <v>0.01489651202741951</v>
+        <v>0.01240857681956176</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3795676986245056</v>
+        <v>0.368774572558408</v>
       </c>
       <c r="K7">
-        <v>0.4215907015943472</v>
+        <v>0.3812998241080816</v>
       </c>
       <c r="L7">
-        <v>0.06801640794194164</v>
+        <v>0.174322346161393</v>
       </c>
       <c r="M7">
-        <v>0.6750118847349711</v>
+        <v>0.1177438383613021</v>
       </c>
       <c r="N7">
-        <v>0.1323029975748113</v>
+        <v>0.06509021963906525</v>
       </c>
       <c r="O7">
-        <v>0.1569596768598309</v>
+        <v>0.687188696141888</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1447319353838878</v>
       </c>
       <c r="Q7">
-        <v>1.602475849573068</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.157787292730557</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.492031697040247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8876614983778381</v>
+        <v>0.8821831996082494</v>
       </c>
       <c r="C8">
-        <v>0.1225061266330556</v>
+        <v>0.1101889555320383</v>
       </c>
       <c r="D8">
-        <v>0.09715500320497483</v>
+        <v>0.09985813569066693</v>
       </c>
       <c r="E8">
-        <v>0.05718666971419673</v>
+        <v>0.0558477568727298</v>
       </c>
       <c r="F8">
-        <v>0.653112278552527</v>
+        <v>0.6120748349661866</v>
       </c>
       <c r="G8">
-        <v>0.4062312481422765</v>
+        <v>0.369957353220947</v>
       </c>
       <c r="H8">
-        <v>0.01137753736588183</v>
+        <v>0.009444105399261625</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3732854016064024</v>
+        <v>0.3588100364947238</v>
       </c>
       <c r="K8">
-        <v>0.4111214430545047</v>
+        <v>0.3695490233316363</v>
       </c>
       <c r="L8">
-        <v>0.06953964609702901</v>
+        <v>0.166519345828295</v>
       </c>
       <c r="M8">
-        <v>0.8080461713245199</v>
+        <v>0.1141125392628695</v>
       </c>
       <c r="N8">
-        <v>0.1516856613506974</v>
+        <v>0.06639549431689717</v>
       </c>
       <c r="O8">
-        <v>0.1884584197584225</v>
+        <v>0.8239157702015234</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1652593210783664</v>
       </c>
       <c r="Q8">
-        <v>1.588605882590798</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1896595918904147</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.468667855584997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.186278729502874</v>
+        <v>1.172670272585293</v>
       </c>
       <c r="C9">
-        <v>0.1336355786287982</v>
+        <v>0.1288774567090982</v>
       </c>
       <c r="D9">
-        <v>0.1203559904340779</v>
+        <v>0.1236296981502107</v>
       </c>
       <c r="E9">
-        <v>0.06261789843768284</v>
+        <v>0.06065770268575754</v>
       </c>
       <c r="F9">
-        <v>0.671584334852696</v>
+        <v>0.6240003500868454</v>
       </c>
       <c r="G9">
-        <v>0.4101561023112481</v>
+        <v>0.3679004884646346</v>
       </c>
       <c r="H9">
-        <v>0.006170503349313128</v>
+        <v>0.005057616074341742</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3640738514246351</v>
+        <v>0.3519389001329358</v>
       </c>
       <c r="K9">
-        <v>0.3945946441268013</v>
+        <v>0.3509908110033706</v>
       </c>
       <c r="L9">
-        <v>0.07234885290549009</v>
+        <v>0.1535867203126227</v>
       </c>
       <c r="M9">
-        <v>1.067990069465964</v>
+        <v>0.1120287851487198</v>
       </c>
       <c r="N9">
-        <v>0.1896668384012017</v>
+        <v>0.06884387522555269</v>
       </c>
       <c r="O9">
-        <v>0.2502046313984145</v>
+        <v>1.092027132257584</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2057707832685338</v>
       </c>
       <c r="Q9">
-        <v>1.5783239485542</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2520442478320497</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.444316434282868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.404944051774152</v>
+        <v>1.385811433994064</v>
       </c>
       <c r="C10">
-        <v>0.143002056714181</v>
+        <v>0.1432949092482403</v>
       </c>
       <c r="D10">
-        <v>0.1356719498502201</v>
+        <v>0.1401737777514427</v>
       </c>
       <c r="E10">
-        <v>0.06492072489224832</v>
+        <v>0.06265494985866127</v>
       </c>
       <c r="F10">
-        <v>0.6813589353884097</v>
+        <v>0.6251758683344235</v>
       </c>
       <c r="G10">
-        <v>0.4111356288380463</v>
+        <v>0.3771252190213303</v>
       </c>
       <c r="H10">
-        <v>0.003803661224665689</v>
+        <v>0.0031300345380183</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3566691936984938</v>
+        <v>0.3296791031326762</v>
       </c>
       <c r="K10">
-        <v>0.3812908559701924</v>
+        <v>0.3345006321103483</v>
       </c>
       <c r="L10">
-        <v>0.07349487678082589</v>
+        <v>0.1433703469903929</v>
       </c>
       <c r="M10">
-        <v>1.261791044983283</v>
+        <v>0.1115015324507489</v>
       </c>
       <c r="N10">
-        <v>0.210908464117054</v>
+        <v>0.06986157260654169</v>
       </c>
       <c r="O10">
-        <v>0.2922573019590615</v>
+        <v>1.290484819191164</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2285302094754798</v>
       </c>
       <c r="Q10">
-        <v>1.56536085521131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2945747387004616</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.410225951779609</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.497779846633648</v>
+        <v>1.480830457159641</v>
       </c>
       <c r="C11">
-        <v>0.1589001451808656</v>
+        <v>0.159680347985045</v>
       </c>
       <c r="D11">
-        <v>0.1266589009909325</v>
+        <v>0.1325318948514393</v>
       </c>
       <c r="E11">
-        <v>0.05323565664686924</v>
+        <v>0.05154835370795219</v>
       </c>
       <c r="F11">
-        <v>0.6207841172314446</v>
+        <v>0.5624259855606439</v>
       </c>
       <c r="G11">
-        <v>0.368461674283175</v>
+        <v>0.3629552084641645</v>
       </c>
       <c r="H11">
-        <v>0.02227541716960602</v>
+        <v>0.02168336608685451</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3312861477888021</v>
+        <v>0.2829610890680492</v>
       </c>
       <c r="K11">
-        <v>0.3446355164082426</v>
+        <v>0.3002005668180807</v>
       </c>
       <c r="L11">
-        <v>0.07164238703744896</v>
+        <v>0.1299364152704392</v>
       </c>
       <c r="M11">
-        <v>1.377933723834929</v>
+        <v>0.1003276420744204</v>
       </c>
       <c r="N11">
-        <v>0.1664239258434819</v>
+        <v>0.06959947608037886</v>
       </c>
       <c r="O11">
-        <v>0.2822853503206133</v>
+        <v>1.403534071546119</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1812369598370509</v>
       </c>
       <c r="Q11">
-        <v>1.421924526120392</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2846017226743598</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.261548653564276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.529784398775945</v>
+        <v>1.515627269306748</v>
       </c>
       <c r="C12">
-        <v>0.1717830330150178</v>
+        <v>0.1718434483397289</v>
       </c>
       <c r="D12">
-        <v>0.1160746285162304</v>
+        <v>0.1222446885895039</v>
       </c>
       <c r="E12">
-        <v>0.045577085234628</v>
+        <v>0.04427454037306067</v>
       </c>
       <c r="F12">
-        <v>0.5694316001702049</v>
+        <v>0.5139175554000843</v>
       </c>
       <c r="G12">
-        <v>0.3337254206762168</v>
+        <v>0.3411287436971548</v>
       </c>
       <c r="H12">
-        <v>0.06108548462080421</v>
+        <v>0.06050081334704771</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3119994254107326</v>
+        <v>0.262009289256131</v>
       </c>
       <c r="K12">
-        <v>0.3183367857753154</v>
+        <v>0.2778757577315538</v>
       </c>
       <c r="L12">
-        <v>0.07627222369437447</v>
+        <v>0.1222031886566679</v>
       </c>
       <c r="M12">
-        <v>1.436394647228184</v>
+        <v>0.09176281314129398</v>
       </c>
       <c r="N12">
-        <v>0.1297357275319726</v>
+        <v>0.07547739272011356</v>
       </c>
       <c r="O12">
-        <v>0.2651220162973011</v>
+        <v>1.458837550247978</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1421241871308183</v>
       </c>
       <c r="Q12">
-        <v>1.307959706546896</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2672891499340153</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.15577086210881</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.516502660103299</v>
+        <v>1.505438069675193</v>
       </c>
       <c r="C13">
-        <v>0.1828889822078992</v>
+        <v>0.1816792614100819</v>
       </c>
       <c r="D13">
-        <v>0.1037276163227858</v>
+        <v>0.109136208937656</v>
       </c>
       <c r="E13">
-        <v>0.0405450671582539</v>
+        <v>0.03952845061750709</v>
       </c>
       <c r="F13">
-        <v>0.521984216618641</v>
+        <v>0.4740299104619723</v>
       </c>
       <c r="G13">
-        <v>0.3028470754472465</v>
+        <v>0.3080086652114318</v>
       </c>
       <c r="H13">
-        <v>0.1171888843771995</v>
+        <v>0.1165464540487449</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2961249158120864</v>
+        <v>0.2563338164235596</v>
       </c>
       <c r="K13">
-        <v>0.2982177112240496</v>
+        <v>0.2631938166256642</v>
       </c>
       <c r="L13">
-        <v>0.08592479835841971</v>
+        <v>0.1176800008740138</v>
       </c>
       <c r="M13">
-        <v>1.453244775894319</v>
+        <v>0.08507529180798379</v>
       </c>
       <c r="N13">
-        <v>0.09708282946509428</v>
+        <v>0.0860642953316102</v>
       </c>
       <c r="O13">
-        <v>0.2415614828710737</v>
+        <v>1.472859022168677</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1072706312563767</v>
       </c>
       <c r="Q13">
-        <v>1.209227442779039</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2434266814585513</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.077642812839272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.486706484954937</v>
+        <v>1.477933934179958</v>
       </c>
       <c r="C14">
-        <v>0.189919808076894</v>
+        <v>0.1875642386972771</v>
       </c>
       <c r="D14">
-        <v>0.09440723479197288</v>
+        <v>0.09889419553061174</v>
       </c>
       <c r="E14">
-        <v>0.03857406819178266</v>
+        <v>0.03773204853245232</v>
       </c>
       <c r="F14">
-        <v>0.4910323882826901</v>
+        <v>0.4498952237719109</v>
       </c>
       <c r="G14">
-        <v>0.2833254404576167</v>
+        <v>0.2815594787196929</v>
       </c>
       <c r="H14">
-        <v>0.1668741320582114</v>
+        <v>0.1661597196292774</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.28670020882047</v>
+        <v>0.2573714442945629</v>
       </c>
       <c r="K14">
-        <v>0.287229450635742</v>
+        <v>0.2562364564245332</v>
       </c>
       <c r="L14">
-        <v>0.09565983432591452</v>
+        <v>0.115728150531643</v>
       </c>
       <c r="M14">
-        <v>1.446141240848391</v>
+        <v>0.08138673224116388</v>
       </c>
       <c r="N14">
-        <v>0.07696534977241143</v>
+        <v>0.096219529969094</v>
       </c>
       <c r="O14">
-        <v>0.2223633229643731</v>
+        <v>1.463909344896734</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.08577567846413103</v>
       </c>
       <c r="Q14">
-        <v>1.148043706478262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2239552845624644</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.034733743428802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.469815012220721</v>
+        <v>1.461660990318592</v>
       </c>
       <c r="C15">
-        <v>0.1910274422396583</v>
+        <v>0.1883250324599999</v>
       </c>
       <c r="D15">
-        <v>0.0917495434270208</v>
+        <v>0.09584991680013388</v>
       </c>
       <c r="E15">
-        <v>0.03830184142995552</v>
+        <v>0.0375067666468209</v>
       </c>
       <c r="F15">
-        <v>0.4841159478049022</v>
+        <v>0.4453245116589031</v>
       </c>
       <c r="G15">
-        <v>0.2792084150631169</v>
+        <v>0.2737079305649743</v>
       </c>
       <c r="H15">
-        <v>0.1795523298132196</v>
+        <v>0.1788009784068691</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2850572212814484</v>
+        <v>0.2598102928497994</v>
       </c>
       <c r="K15">
-        <v>0.2856215328980127</v>
+        <v>0.2557490744732629</v>
       </c>
       <c r="L15">
-        <v>0.09821578941894415</v>
+        <v>0.1156803016152184</v>
       </c>
       <c r="M15">
-        <v>1.435288677851389</v>
+        <v>0.08083871380288166</v>
       </c>
       <c r="N15">
-        <v>0.07227937188884681</v>
+        <v>0.09881438687633448</v>
       </c>
       <c r="O15">
-        <v>0.21635145427447</v>
+        <v>1.452675873528875</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.08077952999665428</v>
       </c>
       <c r="Q15">
-        <v>1.135839638572378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2178485051219425</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.028711520458472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.378222633087347</v>
+        <v>1.370746961341354</v>
       </c>
       <c r="C16">
-        <v>0.1841828556227512</v>
+        <v>0.180810735439124</v>
       </c>
       <c r="D16">
-        <v>0.08796911160656151</v>
+        <v>0.09068857811816855</v>
       </c>
       <c r="E16">
-        <v>0.03838879046802376</v>
+        <v>0.0376550748522822</v>
       </c>
       <c r="F16">
-        <v>0.4893351029999522</v>
+        <v>0.4567344803431084</v>
       </c>
       <c r="G16">
-        <v>0.284651775987804</v>
+        <v>0.262244454842282</v>
       </c>
       <c r="H16">
-        <v>0.1678013882603722</v>
+        <v>0.1668453189561774</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2911191722093207</v>
+        <v>0.2817985113974579</v>
       </c>
       <c r="K16">
-        <v>0.2948472105102056</v>
+        <v>0.2664978457855121</v>
       </c>
       <c r="L16">
-        <v>0.09527069898296148</v>
+        <v>0.1197107306427396</v>
       </c>
       <c r="M16">
-        <v>1.347278605534882</v>
+        <v>0.08375782623829764</v>
       </c>
       <c r="N16">
-        <v>0.07068858912075981</v>
+        <v>0.09550056459235634</v>
       </c>
       <c r="O16">
-        <v>0.2036930021845542</v>
+        <v>1.365105496677558</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.07924222874724052</v>
       </c>
       <c r="Q16">
-        <v>1.159878385111568</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2049378645032114</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.06851254238498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.323971031376487</v>
+        <v>1.315981937702503</v>
       </c>
       <c r="C17">
-        <v>0.1751982717589584</v>
+        <v>0.1716733544394771</v>
       </c>
       <c r="D17">
-        <v>0.08994591643442362</v>
+        <v>0.09221394077550116</v>
       </c>
       <c r="E17">
-        <v>0.03926012172975057</v>
+        <v>0.03845517577635471</v>
       </c>
       <c r="F17">
-        <v>0.5097141651129604</v>
+        <v>0.4779639978851478</v>
       </c>
       <c r="G17">
-        <v>0.2991867139642252</v>
+        <v>0.2688953077689789</v>
       </c>
       <c r="H17">
-        <v>0.1306212097548354</v>
+        <v>0.1295444981901142</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3008144532461685</v>
+        <v>0.298554676244791</v>
       </c>
       <c r="K17">
-        <v>0.3077495320641361</v>
+        <v>0.2785382230586606</v>
       </c>
       <c r="L17">
-        <v>0.08738346137989339</v>
+        <v>0.1242268898841736</v>
       </c>
       <c r="M17">
-        <v>1.283782411073616</v>
+        <v>0.08774351191733665</v>
       </c>
       <c r="N17">
-        <v>0.07951191565014781</v>
+        <v>0.087210190248598</v>
       </c>
       <c r="O17">
-        <v>0.2040590513679419</v>
+        <v>1.302591536395141</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.08877238971446388</v>
       </c>
       <c r="Q17">
-        <v>1.210878380495004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2052703100367168</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.121291793830679</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.295460490435772</v>
+        <v>1.285680907259461</v>
       </c>
       <c r="C18">
-        <v>0.1639642274515438</v>
+        <v>0.1608592386301098</v>
       </c>
       <c r="D18">
-        <v>0.09728733459439809</v>
+        <v>0.09955949136371345</v>
       </c>
       <c r="E18">
-        <v>0.04223662490587277</v>
+        <v>0.04120171541295869</v>
       </c>
       <c r="F18">
-        <v>0.546516029793267</v>
+        <v>0.5122391145989695</v>
       </c>
       <c r="G18">
-        <v>0.3240077772071785</v>
+        <v>0.2880183404005479</v>
       </c>
       <c r="H18">
-        <v>0.07796525134781263</v>
+        <v>0.07685103208938671</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3150622065090332</v>
+        <v>0.3148934408949486</v>
       </c>
       <c r="K18">
-        <v>0.3262245202075995</v>
+        <v>0.2943215912994805</v>
       </c>
       <c r="L18">
-        <v>0.07739741678809509</v>
+        <v>0.1301979579562325</v>
       </c>
       <c r="M18">
-        <v>1.234514015898384</v>
+        <v>0.09339042162180178</v>
       </c>
       <c r="N18">
-        <v>0.1010769634115505</v>
+        <v>0.07663163429278086</v>
       </c>
       <c r="O18">
-        <v>0.2158496284744942</v>
+        <v>1.255259904774846</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.111816695829134</v>
       </c>
       <c r="Q18">
-        <v>1.293275492600571</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2171874607311928</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.19663324534001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.289600522751755</v>
+        <v>1.277072247717655</v>
       </c>
       <c r="C19">
-        <v>0.1525583321427888</v>
+        <v>0.1501844848225034</v>
       </c>
       <c r="D19">
-        <v>0.1087691602678973</v>
+        <v>0.1113218239813563</v>
       </c>
       <c r="E19">
-        <v>0.04867903242943683</v>
+        <v>0.04725150681514734</v>
       </c>
       <c r="F19">
-        <v>0.5958188007588561</v>
+        <v>0.556607152777417</v>
       </c>
       <c r="G19">
-        <v>0.3567858525664889</v>
+        <v>0.3156066427476532</v>
       </c>
       <c r="H19">
-        <v>0.03232158775536931</v>
+        <v>0.0312611825111162</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3325595287782903</v>
+        <v>0.3314008959256398</v>
       </c>
       <c r="K19">
-        <v>0.3493969256606704</v>
+        <v>0.3133396183009527</v>
       </c>
       <c r="L19">
-        <v>0.07088113030609122</v>
+        <v>0.1373681045915092</v>
       </c>
       <c r="M19">
-        <v>1.200766354187721</v>
+        <v>0.1004782099687915</v>
       </c>
       <c r="N19">
-        <v>0.1356324304073269</v>
+        <v>0.06921286593904874</v>
       </c>
       <c r="O19">
-        <v>0.2363979958660067</v>
+        <v>1.224162996841443</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1485872134464046</v>
       </c>
       <c r="Q19">
-        <v>1.399398134640776</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2379793794017608</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.289407326307398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.347486604819039</v>
+        <v>1.329468282744699</v>
       </c>
       <c r="C20">
-        <v>0.1405877649033016</v>
+        <v>0.1399486868323834</v>
       </c>
       <c r="D20">
-        <v>0.1315643961337685</v>
+        <v>0.1352223956508851</v>
       </c>
       <c r="E20">
-        <v>0.06424179811240727</v>
+        <v>0.06200907535952638</v>
       </c>
       <c r="F20">
-        <v>0.6781768021353543</v>
+        <v>0.6268255504563527</v>
       </c>
       <c r="G20">
-        <v>0.4104165708036049</v>
+        <v>0.3669051644552965</v>
       </c>
       <c r="H20">
-        <v>0.004336802148999119</v>
+        <v>0.003548676750360524</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3583549857117561</v>
+        <v>0.3451361675397067</v>
       </c>
       <c r="K20">
-        <v>0.3844317168178577</v>
+        <v>0.3397188014685533</v>
       </c>
       <c r="L20">
-        <v>0.07315588391134131</v>
+        <v>0.1463206603002369</v>
       </c>
       <c r="M20">
-        <v>1.211035702947242</v>
+        <v>0.111878358665404</v>
       </c>
       <c r="N20">
-        <v>0.2050505932688367</v>
+        <v>0.06960729462347981</v>
       </c>
       <c r="O20">
-        <v>0.2810746529481136</v>
+        <v>1.239163579013336</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2222943501804906</v>
       </c>
       <c r="Q20">
-        <v>1.567246390539481</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2832156632748948</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.424870719517315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.51654906832033</v>
+        <v>1.495560295357762</v>
       </c>
       <c r="C21">
-        <v>0.1458981251321489</v>
+        <v>0.1471151658254115</v>
       </c>
       <c r="D21">
-        <v>0.14625829699078</v>
+        <v>0.1537732777931637</v>
       </c>
       <c r="E21">
-        <v>0.06864428759416263</v>
+        <v>0.06634450580451379</v>
       </c>
       <c r="F21">
-        <v>0.6991203348626911</v>
+        <v>0.6262273604132176</v>
       </c>
       <c r="G21">
-        <v>0.4203983456123481</v>
+        <v>0.4239802411732541</v>
       </c>
       <c r="H21">
-        <v>0.002456521735806017</v>
+        <v>0.002009138180838366</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3574787232880681</v>
+        <v>0.2875018433363579</v>
       </c>
       <c r="K21">
-        <v>0.3809740134585375</v>
+        <v>0.3262179845477782</v>
       </c>
       <c r="L21">
-        <v>0.07528505447553346</v>
+        <v>0.1384536181834921</v>
       </c>
       <c r="M21">
-        <v>1.354933313548457</v>
+        <v>0.1116387284925082</v>
       </c>
       <c r="N21">
-        <v>0.2317311616587716</v>
+        <v>0.07108067326609868</v>
       </c>
       <c r="O21">
-        <v>0.3185852470990511</v>
+        <v>1.3836389320943</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2505828835702744</v>
       </c>
       <c r="Q21">
-        <v>1.586923251915081</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3214196393446045</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.386759142599786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.626773404086947</v>
+        <v>1.60415499809875</v>
       </c>
       <c r="C22">
-        <v>0.1499837961157624</v>
+        <v>0.152250362058993</v>
       </c>
       <c r="D22">
-        <v>0.1549464661107862</v>
+        <v>0.1652866464240077</v>
       </c>
       <c r="E22">
-        <v>0.07066104410444218</v>
+        <v>0.06840259547436212</v>
       </c>
       <c r="F22">
-        <v>0.7096689332071051</v>
+        <v>0.6219127947362253</v>
       </c>
       <c r="G22">
-        <v>0.4249629266190382</v>
+        <v>0.4668708707006743</v>
       </c>
       <c r="H22">
-        <v>0.001619715623267903</v>
+        <v>0.001334664657022144</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3559585506913052</v>
+        <v>0.2565385986743429</v>
       </c>
       <c r="K22">
-        <v>0.3773177868359774</v>
+        <v>0.3158556017243264</v>
       </c>
       <c r="L22">
-        <v>0.0762380551879982</v>
+        <v>0.1330229752309844</v>
       </c>
       <c r="M22">
-        <v>1.450598945701216</v>
+        <v>0.1110526490480801</v>
       </c>
       <c r="N22">
-        <v>0.2457832309891899</v>
+        <v>0.07170901856663736</v>
       </c>
       <c r="O22">
-        <v>0.3414228022120724</v>
+        <v>1.47917699682813</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2654880409897515</v>
       </c>
       <c r="Q22">
-        <v>1.593638156915233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.34470651810053</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.353752315590484</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.567931450539987</v>
+        <v>1.545886347984236</v>
       </c>
       <c r="C23">
-        <v>0.1478030357249835</v>
+        <v>0.149801082607155</v>
       </c>
       <c r="D23">
-        <v>0.1503059819846726</v>
+        <v>0.1587265407845138</v>
       </c>
       <c r="E23">
-        <v>0.06958405808111934</v>
+        <v>0.06725831778350155</v>
       </c>
       <c r="F23">
-        <v>0.703960028285266</v>
+        <v>0.6260076707955662</v>
       </c>
       <c r="G23">
-        <v>0.4224601445522254</v>
+        <v>0.4372201331408121</v>
       </c>
       <c r="H23">
-        <v>0.002043096437844172</v>
+        <v>0.001672032983198735</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3567313228841016</v>
+        <v>0.27656032489692</v>
       </c>
       <c r="K23">
-        <v>0.3792188046752436</v>
+        <v>0.3222007206027548</v>
       </c>
       <c r="L23">
-        <v>0.07573068566969798</v>
+        <v>0.13615876728411</v>
       </c>
       <c r="M23">
-        <v>1.399534412877955</v>
+        <v>0.1117013406935001</v>
       </c>
       <c r="N23">
-        <v>0.2382808605995308</v>
+        <v>0.07140466238853937</v>
       </c>
       <c r="O23">
-        <v>0.3292303447601839</v>
+        <v>1.428681010110608</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2575591074511436</v>
       </c>
       <c r="Q23">
-        <v>1.589832941670892</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3322352309139944</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.37630765732257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.345327154006554</v>
+        <v>1.327050657833297</v>
       </c>
       <c r="C24">
-        <v>0.1395453962689075</v>
+        <v>0.1388841834867947</v>
       </c>
       <c r="D24">
-        <v>0.1328031477188034</v>
+        <v>0.1364739955436391</v>
       </c>
       <c r="E24">
-        <v>0.06551709507141013</v>
+        <v>0.06322582865445092</v>
       </c>
       <c r="F24">
-        <v>0.6840320001039402</v>
+        <v>0.6321758255426957</v>
       </c>
       <c r="G24">
-        <v>0.4144064024604788</v>
+        <v>0.3700062986427852</v>
       </c>
       <c r="H24">
-        <v>0.00414340838862115</v>
+        <v>0.003362762217130499</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3604892902368348</v>
+        <v>0.3474873276764114</v>
       </c>
       <c r="K24">
-        <v>0.3875029978015405</v>
+        <v>0.3422911069864867</v>
       </c>
       <c r="L24">
-        <v>0.07378012069738293</v>
+        <v>0.1473138980348967</v>
       </c>
       <c r="M24">
-        <v>1.206234049724742</v>
+        <v>0.1128013931516634</v>
       </c>
       <c r="N24">
-        <v>0.2099161748919798</v>
+        <v>0.07007812199422636</v>
       </c>
       <c r="O24">
-        <v>0.2831248107471183</v>
+        <v>1.234602623347001</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.227453387022976</v>
       </c>
       <c r="Q24">
-        <v>1.580170472827717</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.285289618518334</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.436412430996285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.10551405180405</v>
+        <v>1.094050743953972</v>
       </c>
       <c r="C25">
-        <v>0.1306304491426005</v>
+        <v>0.1239510617454442</v>
       </c>
       <c r="D25">
-        <v>0.1140571575169105</v>
+        <v>0.1169683860956923</v>
       </c>
       <c r="E25">
-        <v>0.06114756325373527</v>
+        <v>0.05933759976247366</v>
       </c>
       <c r="F25">
-        <v>0.665908480843612</v>
+        <v>0.6212143051998353</v>
       </c>
       <c r="G25">
-        <v>0.4085345285714155</v>
+        <v>0.3650222526054563</v>
       </c>
       <c r="H25">
-        <v>0.007386210595990428</v>
+        <v>0.006072667107996921</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3662198469366515</v>
+        <v>0.3578217466556808</v>
       </c>
       <c r="K25">
-        <v>0.3986185284471873</v>
+        <v>0.3561442025660462</v>
       </c>
       <c r="L25">
-        <v>0.07160689203167525</v>
+        <v>0.1571041688699886</v>
       </c>
       <c r="M25">
-        <v>0.9977399379000929</v>
+        <v>0.1122434445472198</v>
       </c>
       <c r="N25">
-        <v>0.1793896091508316</v>
+        <v>0.06821938373930214</v>
       </c>
       <c r="O25">
-        <v>0.2334958636005027</v>
+        <v>1.019808287355545</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1948017523611441</v>
       </c>
       <c r="Q25">
-        <v>1.579200608616318</v>
+        <v>0.2351470723309461</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.452164509271938</v>
       </c>
     </row>
   </sheetData>
